--- a/_data/#3787_fachrichtung.xlsx
+++ b/_data/#3787_fachrichtung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22485" windowHeight="12638"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3439" uniqueCount="833">
   <si>
     <t>nummer</t>
   </si>
@@ -1172,16 +1172,10 @@
     <t>GO-M</t>
   </si>
   <si>
-    <t>111M</t>
-  </si>
-  <si>
-    <t>Angewandte Geodäsie;Kartographie/Geomedientechnik;Navigation</t>
-  </si>
-  <si>
-    <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/08_GOM_212_SPO.pdf</t>
-  </si>
-  <si>
-    <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/08_GOM_111_SPO.pdf</t>
+    <t>Angewandte Geodäsie;Kartographie|Geomedientechnik;Navigation</t>
+  </si>
+  <si>
+    <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/08_GOM_220_SPO.pdf</t>
   </si>
   <si>
     <t>GR</t>
@@ -3008,69 +3002,69 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="22.59765625" customWidth="1"/>
-    <col min="5" max="5" width="45.06640625" customWidth="1"/>
-    <col min="6" max="6" width="33.46484375" customWidth="1"/>
-    <col min="7" max="7" width="62" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="81.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.86328125" customWidth="1"/>
-    <col min="15" max="15" width="21.73046875" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="20" width="11.33203125" customWidth="1"/>
-    <col min="21" max="21" width="15.3984375" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" customWidth="1"/>
-    <col min="23" max="23" width="24.9296875" customWidth="1"/>
-    <col min="24" max="24" width="12.53125" customWidth="1"/>
-    <col min="25" max="25" width="22.73046875" customWidth="1"/>
-    <col min="26" max="26" width="14.53125" customWidth="1"/>
-    <col min="27" max="27" width="27.46484375" customWidth="1"/>
-    <col min="28" max="28" width="13.86328125" customWidth="1"/>
-    <col min="29" max="29" width="21.265625" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" customWidth="1"/>
-    <col min="31" max="31" width="23.265625" customWidth="1"/>
-    <col min="32" max="32" width="11.33203125" customWidth="1"/>
-    <col min="33" max="33" width="22.9296875" customWidth="1"/>
-    <col min="34" max="34" width="47.3984375" customWidth="1"/>
-    <col min="35" max="35" width="26.59765625" customWidth="1"/>
-    <col min="36" max="36" width="38.53125" customWidth="1"/>
-    <col min="37" max="37" width="14.53125" customWidth="1"/>
-    <col min="38" max="38" width="15.3984375" customWidth="1"/>
-    <col min="39" max="39" width="19.19921875" customWidth="1"/>
-    <col min="40" max="40" width="8.796875" customWidth="1"/>
-    <col min="41" max="41" width="10.53125" customWidth="1"/>
-    <col min="42" max="42" width="14.86328125" customWidth="1"/>
-    <col min="43" max="44" width="13.33203125" customWidth="1"/>
-    <col min="45" max="45" width="11.6640625" customWidth="1"/>
-    <col min="46" max="46" width="11.86328125" customWidth="1"/>
-    <col min="47" max="47" width="10.1328125" customWidth="1"/>
-    <col min="48" max="48" width="16.53125" customWidth="1"/>
-    <col min="49" max="49" width="14.53125" customWidth="1"/>
-    <col min="50" max="50" width="45.265625" customWidth="1"/>
-    <col min="51" max="51" width="25.9296875" customWidth="1"/>
-    <col min="52" max="52" width="21.59765625" customWidth="1"/>
-    <col min="53" max="53" width="15.06640625" customWidth="1"/>
-    <col min="54" max="54" width="31.1328125" customWidth="1"/>
-    <col min="55" max="55" width="29.46484375" customWidth="1"/>
-    <col min="56" max="56" width="29.796875" customWidth="1"/>
-    <col min="57" max="57" width="25.796875" customWidth="1"/>
-    <col min="58" max="58" width="28.1328125" customWidth="1"/>
-    <col min="59" max="59" width="25.1328125" customWidth="1"/>
-    <col min="60" max="60" width="115.19921875" customWidth="1"/>
-    <col min="61" max="61" width="106.19921875" customWidth="1"/>
-    <col min="62" max="62" width="112.06640625" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="48" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="66" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="87" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="20" width="12.140625" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="24.28515625" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" customWidth="1"/>
+    <col min="27" max="27" width="29.28515625" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" customWidth="1"/>
+    <col min="29" max="29" width="22.7109375" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" customWidth="1"/>
+    <col min="31" max="31" width="24.85546875" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" customWidth="1"/>
+    <col min="33" max="33" width="24.42578125" customWidth="1"/>
+    <col min="34" max="34" width="50.5703125" customWidth="1"/>
+    <col min="35" max="35" width="28.42578125" customWidth="1"/>
+    <col min="36" max="36" width="41" customWidth="1"/>
+    <col min="37" max="37" width="15.5703125" customWidth="1"/>
+    <col min="38" max="38" width="16.42578125" customWidth="1"/>
+    <col min="39" max="39" width="20.5703125" customWidth="1"/>
+    <col min="40" max="40" width="9.42578125" customWidth="1"/>
+    <col min="41" max="41" width="11.28515625" customWidth="1"/>
+    <col min="42" max="42" width="15.85546875" customWidth="1"/>
+    <col min="43" max="44" width="14.28515625" customWidth="1"/>
+    <col min="45" max="45" width="12.42578125" customWidth="1"/>
+    <col min="46" max="46" width="12.7109375" customWidth="1"/>
+    <col min="47" max="47" width="10.85546875" customWidth="1"/>
+    <col min="48" max="48" width="17.7109375" customWidth="1"/>
+    <col min="49" max="49" width="15.5703125" customWidth="1"/>
+    <col min="50" max="50" width="48.140625" customWidth="1"/>
+    <col min="51" max="51" width="27.7109375" customWidth="1"/>
+    <col min="52" max="52" width="23" customWidth="1"/>
+    <col min="53" max="53" width="16" customWidth="1"/>
+    <col min="54" max="54" width="33.140625" customWidth="1"/>
+    <col min="55" max="55" width="31.42578125" customWidth="1"/>
+    <col min="56" max="56" width="31.7109375" customWidth="1"/>
+    <col min="57" max="57" width="27.42578125" customWidth="1"/>
+    <col min="58" max="58" width="30" customWidth="1"/>
+    <col min="59" max="59" width="26.7109375" customWidth="1"/>
+    <col min="60" max="60" width="122.5703125" customWidth="1"/>
+    <col min="61" max="61" width="113" customWidth="1"/>
+    <col min="62" max="62" width="119.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:62" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3258,7 +3252,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
@@ -3408,7 +3402,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>87</v>
       </c>
@@ -3560,7 +3554,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>87</v>
       </c>
@@ -3700,7 +3694,7 @@
       <c r="BI4" s="8"/>
       <c r="BJ4" s="17"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>116</v>
       </c>
@@ -3856,7 +3850,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>128</v>
       </c>
@@ -3966,7 +3960,7 @@
       <c r="BI6" s="8"/>
       <c r="BJ6" s="17"/>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>135</v>
       </c>
@@ -4120,7 +4114,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>135</v>
       </c>
@@ -4246,7 +4240,7 @@
       </c>
       <c r="BJ8" s="17"/>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>135</v>
       </c>
@@ -4404,7 +4398,7 @@
       </c>
       <c r="BJ9" s="17"/>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>62</v>
       </c>
@@ -4542,7 +4536,7 @@
       <c r="BI10" s="8"/>
       <c r="BJ10" s="17"/>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>62</v>
       </c>
@@ -4664,7 +4658,7 @@
       <c r="BI11" s="8"/>
       <c r="BJ11" s="17"/>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>183</v>
       </c>
@@ -4792,7 +4786,7 @@
       <c r="BI12" s="8"/>
       <c r="BJ12" s="17"/>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
@@ -4906,7 +4900,7 @@
       <c r="BI13" s="8"/>
       <c r="BJ13" s="17"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>183</v>
       </c>
@@ -5068,7 +5062,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>183</v>
       </c>
@@ -5198,7 +5192,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>215</v>
       </c>
@@ -5312,7 +5306,7 @@
       <c r="BI16" s="8"/>
       <c r="BJ16" s="17"/>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>62</v>
       </c>
@@ -5462,7 +5456,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>229</v>
       </c>
@@ -5600,7 +5594,7 @@
       <c r="BI18" s="8"/>
       <c r="BJ18" s="17"/>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>237</v>
       </c>
@@ -5712,7 +5706,7 @@
       <c r="BI19" s="8"/>
       <c r="BJ19" s="17"/>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>237</v>
       </c>
@@ -5862,7 +5856,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>251</v>
       </c>
@@ -6002,7 +5996,7 @@
       <c r="BI21" s="8"/>
       <c r="BJ21" s="17"/>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>251</v>
       </c>
@@ -6140,7 +6134,7 @@
       <c r="BI22" s="8"/>
       <c r="BJ22" s="17"/>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>116</v>
       </c>
@@ -6268,7 +6262,7 @@
       <c r="BI23" s="8"/>
       <c r="BJ23" s="17"/>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>270</v>
       </c>
@@ -6370,7 +6364,7 @@
       <c r="BI24" s="8"/>
       <c r="BJ24" s="17"/>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>270</v>
       </c>
@@ -6530,7 +6524,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>270</v>
       </c>
@@ -6698,7 +6692,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>270</v>
       </c>
@@ -6854,7 +6848,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>299</v>
       </c>
@@ -7014,7 +7008,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>299</v>
       </c>
@@ -7148,7 +7142,7 @@
       <c r="BI29" s="8"/>
       <c r="BJ29" s="17"/>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>299</v>
       </c>
@@ -7318,7 +7312,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>299</v>
       </c>
@@ -7468,7 +7462,7 @@
       </c>
       <c r="BJ31" s="17"/>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>215</v>
       </c>
@@ -7584,7 +7578,7 @@
       <c r="BI32" s="8"/>
       <c r="BJ32" s="17"/>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>344</v>
       </c>
@@ -7734,7 +7728,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>351</v>
       </c>
@@ -7864,7 +7858,7 @@
       <c r="BI34" s="8"/>
       <c r="BJ34" s="17"/>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>344</v>
       </c>
@@ -7970,7 +7964,7 @@
       <c r="BI35" s="8"/>
       <c r="BJ35" s="17"/>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>344</v>
       </c>
@@ -8120,7 +8114,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>344</v>
       </c>
@@ -8226,7 +8220,7 @@
       <c r="BI37" s="8"/>
       <c r="BJ37" s="17"/>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>344</v>
       </c>
@@ -8273,65 +8267,35 @@
         <v>275</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q38" s="8" t="s">
-        <v>382</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Q38" s="8"/>
       <c r="R38" s="8" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="S38" s="9">
         <v>90</v>
       </c>
-      <c r="T38" s="9">
-        <v>90</v>
-      </c>
+      <c r="T38" s="9"/>
       <c r="U38" s="9">
         <v>90</v>
       </c>
-      <c r="V38" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="W38" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="X38" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y38" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z38" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA38" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB38" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC38" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD38" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE38" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF38" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG38" s="8" t="s">
-        <v>156</v>
-      </c>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
       <c r="AH38" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="AI38" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="AI38" s="8"/>
       <c r="AJ38" s="8" t="s">
         <v>113</v>
       </c>
@@ -8366,9 +8330,7 @@
       <c r="AY38" s="9">
         <v>1</v>
       </c>
-      <c r="AZ38" s="9">
-        <v>3</v>
-      </c>
+      <c r="AZ38" s="9"/>
       <c r="BA38" s="9">
         <v>1</v>
       </c>
@@ -8376,30 +8338,26 @@
       <c r="BC38" s="8"/>
       <c r="BD38" s="8"/>
       <c r="BE38" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BF38" s="8"/>
+      <c r="BG38" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH38" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="BF38" s="8" t="s">
+      <c r="BI38" s="8"/>
+      <c r="BJ38" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="BG38" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="BH38" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="BI38" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="BJ38" s="17" t="s">
-        <v>384</v>
-      </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>102</v>
@@ -8408,16 +8366,16 @@
         <v>103</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="H39" s="8" t="s">
         <v>387</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>189</v>
@@ -8504,12 +8462,12 @@
       <c r="BI39" s="8"/>
       <c r="BJ39" s="17"/>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>194</v>
@@ -8518,16 +8476,16 @@
         <v>195</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="H40" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>394</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>220</v>
@@ -8554,7 +8512,7 @@
         <v>77</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="R40" s="8" t="s">
         <v>77</v>
@@ -8572,7 +8530,7 @@
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
@@ -8580,7 +8538,7 @@
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
       <c r="AE40" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AF40" s="8"/>
       <c r="AG40" s="8"/>
@@ -8632,16 +8590,16 @@
       <c r="BG40" s="8"/>
       <c r="BH40" s="8"/>
       <c r="BI40" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BJ40" s="17"/>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>102</v>
@@ -8650,16 +8608,16 @@
         <v>103</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="H41" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>402</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>106</v>
@@ -8683,13 +8641,13 @@
         <v>75</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Q41" s="8" t="s">
         <v>77</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S41" s="9">
         <v>90</v>
@@ -8779,19 +8737,19 @@
       <c r="BF41" s="8"/>
       <c r="BG41" s="8"/>
       <c r="BH41" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="BI41" s="8"/>
       <c r="BJ41" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>102</v>
@@ -8800,16 +8758,16 @@
         <v>103</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="H42" s="8" t="s">
         <v>407</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>409</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>189</v>
@@ -8853,20 +8811,20 @@
       <c r="V42" s="8"/>
       <c r="W42" s="8"/>
       <c r="X42" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Y42" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
       <c r="AD42" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AE42" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AF42" s="8"/>
       <c r="AG42" s="8"/>
@@ -8914,16 +8872,16 @@
       <c r="BG42" s="8"/>
       <c r="BH42" s="8"/>
       <c r="BI42" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="BJ42" s="17"/>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>102</v>
@@ -8932,16 +8890,16 @@
         <v>103</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>414</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>416</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>106</v>
@@ -9030,12 +8988,12 @@
       <c r="BI43" s="8"/>
       <c r="BJ43" s="17"/>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>194</v>
@@ -9044,16 +9002,16 @@
         <v>195</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="H44" s="8" t="s">
         <v>417</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>419</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>199</v>
@@ -9144,12 +9102,12 @@
       <c r="BI44" s="8"/>
       <c r="BJ44" s="17"/>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>64</v>
@@ -9158,16 +9116,16 @@
         <v>65</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="H45" s="8" t="s">
         <v>422</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>424</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>70</v>
@@ -9287,19 +9245,19 @@
       <c r="BF45" s="8"/>
       <c r="BG45" s="8"/>
       <c r="BH45" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="BI45" s="8"/>
       <c r="BJ45" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>64</v>
@@ -9308,16 +9266,16 @@
         <v>65</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="H46" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>429</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>70</v>
@@ -9431,19 +9389,19 @@
       <c r="BF46" s="8"/>
       <c r="BG46" s="8"/>
       <c r="BH46" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="BI46" s="8"/>
       <c r="BJ46" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>64</v>
@@ -9452,16 +9410,16 @@
         <v>65</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="H47" s="8" t="s">
         <v>433</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>435</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>70</v>
@@ -9581,19 +9539,19 @@
       <c r="BF47" s="8"/>
       <c r="BG47" s="8"/>
       <c r="BH47" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BI47" s="8"/>
       <c r="BJ47" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>102</v>
@@ -9602,16 +9560,16 @@
         <v>103</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>106</v>
@@ -9635,13 +9593,13 @@
         <v>275</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q48" s="8" t="s">
         <v>110</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="S48" s="9">
         <v>90</v>
@@ -9738,30 +9696,30 @@
       <c r="BC48" s="8"/>
       <c r="BD48" s="8"/>
       <c r="BE48" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="BF48" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="BG48" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="BH48" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="BI48" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="BF48" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="BG48" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="BH48" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="BI48" s="8" t="s">
-        <v>443</v>
-      </c>
       <c r="BJ48" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>102</v>
@@ -9770,16 +9728,16 @@
         <v>103</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="H49" s="8" t="s">
         <v>446</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>448</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>189</v>
@@ -9804,7 +9762,7 @@
       </c>
       <c r="P49" s="8"/>
       <c r="Q49" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="R49" s="8" t="s">
         <v>77</v>
@@ -9876,16 +9834,16 @@
       <c r="BG49" s="8"/>
       <c r="BH49" s="8"/>
       <c r="BI49" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="BJ49" s="17"/>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>194</v>
@@ -9894,16 +9852,16 @@
         <v>195</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>220</v>
@@ -9930,7 +9888,7 @@
         <v>77</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="R50" s="8" t="s">
         <v>77</v>
@@ -9948,7 +9906,7 @@
       <c r="W50" s="8"/>
       <c r="X50" s="8"/>
       <c r="Y50" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
@@ -9956,7 +9914,7 @@
       <c r="AC50" s="8"/>
       <c r="AD50" s="8"/>
       <c r="AE50" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AF50" s="8"/>
       <c r="AG50" s="8"/>
@@ -10010,16 +9968,16 @@
       <c r="BG50" s="8"/>
       <c r="BH50" s="8"/>
       <c r="BI50" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BJ50" s="17"/>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>102</v>
@@ -10028,16 +9986,16 @@
         <v>103</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>106</v>
@@ -10167,21 +10125,21 @@
       <c r="BF51" s="8"/>
       <c r="BG51" s="8"/>
       <c r="BH51" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="BI51" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="BJ51" s="17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>102</v>
@@ -10190,16 +10148,16 @@
         <v>103</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="H52" s="8" t="s">
         <v>460</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>462</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>106</v>
@@ -10223,10 +10181,10 @@
         <v>153</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="R52" s="8" t="s">
         <v>77</v>
@@ -10319,19 +10277,19 @@
       <c r="BF52" s="8"/>
       <c r="BG52" s="8"/>
       <c r="BH52" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="BI52" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="BJ52" s="17"/>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>102</v>
@@ -10340,16 +10298,16 @@
         <v>103</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="H53" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>470</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>106</v>
@@ -10376,7 +10334,7 @@
         <v>191</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="R53" s="8" t="s">
         <v>77</v>
@@ -10469,17 +10427,17 @@
       <c r="BF53" s="8"/>
       <c r="BG53" s="8"/>
       <c r="BH53" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="BI53" s="8"/>
       <c r="BJ53" s="17"/>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>344</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>64</v>
@@ -10488,16 +10446,16 @@
         <v>65</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="H54" s="8" t="s">
         <v>475</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>477</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>70</v>
@@ -10521,7 +10479,7 @@
         <v>109</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Q54" s="8" t="s">
         <v>77</v>
@@ -10599,17 +10557,17 @@
       <c r="BF54" s="8"/>
       <c r="BG54" s="8"/>
       <c r="BH54" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="BI54" s="8"/>
       <c r="BJ54" s="17"/>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>344</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>64</v>
@@ -10618,16 +10576,16 @@
         <v>65</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="H55" s="8" t="s">
         <v>482</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>484</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>70</v>
@@ -10739,17 +10697,17 @@
       <c r="BF55" s="8"/>
       <c r="BG55" s="8"/>
       <c r="BH55" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="BI55" s="8"/>
       <c r="BJ55" s="17"/>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>64</v>
@@ -10758,16 +10716,16 @@
         <v>65</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="H56" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>490</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>70</v>
@@ -10837,11 +10795,11 @@
         <v>124</v>
       </c>
       <c r="AH56" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AI56" s="8"/>
       <c r="AJ56" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AK56" s="7" t="s">
         <v>126</v>
@@ -10887,19 +10845,19 @@
       <c r="BF56" s="8"/>
       <c r="BG56" s="8"/>
       <c r="BH56" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="BI56" s="8"/>
       <c r="BJ56" s="17" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>64</v>
@@ -10908,16 +10866,16 @@
         <v>65</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G57" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="H57" s="8" t="s">
         <v>495</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>497</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>70</v>
@@ -11043,19 +11001,19 @@
       <c r="BF57" s="8"/>
       <c r="BG57" s="8"/>
       <c r="BH57" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="BI57" s="8"/>
       <c r="BJ57" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>102</v>
@@ -11064,16 +11022,16 @@
         <v>103</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>106</v>
@@ -11193,19 +11151,19 @@
       <c r="BF58" s="8"/>
       <c r="BG58" s="8"/>
       <c r="BH58" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="BI58" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="BJ58" s="17"/>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>64</v>
@@ -11214,16 +11172,16 @@
         <v>65</v>
       </c>
       <c r="E59" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="H59" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>507</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>70</v>
@@ -11346,26 +11304,26 @@
       <c r="BC59" s="8"/>
       <c r="BD59" s="8"/>
       <c r="BE59" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="BF59" s="8"/>
       <c r="BG59" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="BH59" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="BI59" s="8"/>
       <c r="BJ59" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>308</v>
@@ -11374,16 +11332,16 @@
         <v>309</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>313</v>
@@ -11407,7 +11365,7 @@
         <v>109</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Q60" s="8" t="s">
         <v>77</v>
@@ -11482,22 +11440,22 @@
       <c r="BC60" s="8"/>
       <c r="BD60" s="8"/>
       <c r="BE60" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="BF60" s="8"/>
       <c r="BG60" s="8"/>
       <c r="BH60" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="BI60" s="8"/>
       <c r="BJ60" s="17"/>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>102</v>
@@ -11506,16 +11464,16 @@
         <v>103</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>106</v>
@@ -11645,21 +11603,21 @@
       <c r="BF61" s="8"/>
       <c r="BG61" s="8"/>
       <c r="BH61" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BI61" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="BJ61" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>64</v>
@@ -11668,16 +11626,16 @@
         <v>65</v>
       </c>
       <c r="E62" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="H62" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>523</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>70</v>
@@ -11701,13 +11659,13 @@
         <v>75</v>
       </c>
       <c r="P62" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Q62" s="8" t="s">
         <v>77</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="S62" s="9">
         <v>210</v>
@@ -11747,11 +11705,11 @@
         <v>124</v>
       </c>
       <c r="AH62" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AI62" s="8"/>
       <c r="AJ62" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AK62" s="7" t="s">
         <v>81</v>
@@ -11791,29 +11749,29 @@
         <v>0</v>
       </c>
       <c r="BB62" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="BC62" s="8"/>
       <c r="BD62" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="BE62" s="8"/>
       <c r="BF62" s="8"/>
       <c r="BG62" s="8"/>
       <c r="BH62" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="BI62" s="8"/>
       <c r="BJ62" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="63" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>102</v>
@@ -11822,22 +11780,22 @@
         <v>103</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G63" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="J63" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>72</v>
@@ -11855,13 +11813,13 @@
         <v>275</v>
       </c>
       <c r="P63" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Q63" s="8" t="s">
         <v>357</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S63" s="9">
         <v>90</v>
@@ -11961,21 +11919,21 @@
       <c r="BF63" s="8"/>
       <c r="BG63" s="8"/>
       <c r="BH63" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BI63" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="BJ63" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
-    <row r="64" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>102</v>
@@ -11984,16 +11942,16 @@
         <v>103</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="G64" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="H64" s="8" t="s">
         <v>536</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>538</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>106</v>
@@ -12017,11 +11975,11 @@
         <v>275</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Q64" s="8"/>
       <c r="R64" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="S64" s="9">
         <v>90</v>
@@ -12107,19 +12065,19 @@
       <c r="BF64" s="8"/>
       <c r="BG64" s="8"/>
       <c r="BH64" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="BI64" s="8"/>
       <c r="BJ64" s="17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
-    <row r="65" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>102</v>
@@ -12128,16 +12086,16 @@
         <v>103</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="H65" s="8" t="s">
         <v>542</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>544</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>189</v>
@@ -12234,12 +12192,12 @@
       <c r="BI65" s="8"/>
       <c r="BJ65" s="17"/>
     </row>
-    <row r="66" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>64</v>
@@ -12248,16 +12206,16 @@
         <v>65</v>
       </c>
       <c r="E66" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="H66" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>548</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>70</v>
@@ -12284,7 +12242,7 @@
         <v>77</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="R66" s="8" t="s">
         <v>77</v>
@@ -12320,7 +12278,7 @@
       <c r="AG66" s="8"/>
       <c r="AH66" s="8"/>
       <c r="AI66" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AJ66" s="8"/>
       <c r="AK66" s="7" t="s">
@@ -12362,7 +12320,7 @@
       </c>
       <c r="BB66" s="8"/>
       <c r="BC66" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="BD66" s="8"/>
       <c r="BE66" s="8"/>
@@ -12370,16 +12328,16 @@
       <c r="BG66" s="8"/>
       <c r="BH66" s="8"/>
       <c r="BI66" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="BJ66" s="17"/>
     </row>
-    <row r="67" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>64</v>
@@ -12388,16 +12346,16 @@
         <v>65</v>
       </c>
       <c r="E67" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G67" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="H67" s="8" t="s">
         <v>553</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>555</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>70</v>
@@ -12421,7 +12379,7 @@
         <v>109</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Q67" s="8" t="s">
         <v>77</v>
@@ -12459,7 +12417,7 @@
       <c r="AF67" s="8"/>
       <c r="AG67" s="8"/>
       <c r="AH67" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AI67" s="8"/>
       <c r="AJ67" s="8"/>
@@ -12510,12 +12468,12 @@
       <c r="BI67" s="8"/>
       <c r="BJ67" s="17"/>
     </row>
-    <row r="68" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>102</v>
@@ -12524,16 +12482,16 @@
         <v>103</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>106</v>
@@ -12557,7 +12515,7 @@
         <v>109</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Q68" s="8" t="s">
         <v>77</v>
@@ -12635,17 +12593,17 @@
       <c r="BF68" s="8"/>
       <c r="BG68" s="8"/>
       <c r="BH68" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="BI68" s="8"/>
       <c r="BJ68" s="17"/>
     </row>
-    <row r="69" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>64</v>
@@ -12654,16 +12612,16 @@
         <v>65</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G69" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="H69" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>565</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>70</v>
@@ -12752,12 +12710,12 @@
       <c r="BI69" s="8"/>
       <c r="BJ69" s="17"/>
     </row>
-    <row r="70" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>64</v>
@@ -12766,16 +12724,16 @@
         <v>65</v>
       </c>
       <c r="E70" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G70" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="H70" s="8" t="s">
         <v>568</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>570</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>70</v>
@@ -12803,7 +12761,7 @@
         <v>77</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="S70" s="9"/>
       <c r="T70" s="9">
@@ -12835,7 +12793,7 @@
       <c r="AH70" s="8"/>
       <c r="AI70" s="8"/>
       <c r="AJ70" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AK70" s="7" t="s">
         <v>358</v>
@@ -12873,15 +12831,15 @@
       <c r="BH70" s="8"/>
       <c r="BI70" s="8"/>
       <c r="BJ70" s="17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="71" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>102</v>
@@ -12890,16 +12848,16 @@
         <v>103</v>
       </c>
       <c r="E71" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="H71" s="8" t="s">
         <v>574</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>576</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>106</v>
@@ -13002,34 +12960,34 @@
       <c r="BG71" s="8"/>
       <c r="BH71" s="8"/>
       <c r="BI71" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="BJ71" s="17"/>
     </row>
-    <row r="72" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D72" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G72" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="H72" s="8" t="s">
         <v>579</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>581</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>220</v>
@@ -13120,12 +13078,12 @@
       <c r="BI72" s="8"/>
       <c r="BJ72" s="17"/>
     </row>
-    <row r="73" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>64</v>
@@ -13134,16 +13092,16 @@
         <v>65</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="G73" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="H73" s="8" t="s">
         <v>584</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>586</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>70</v>
@@ -13263,19 +13221,19 @@
       <c r="BF73" s="8"/>
       <c r="BG73" s="8"/>
       <c r="BH73" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="BI73" s="8"/>
       <c r="BJ73" s="17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
-    <row r="74" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>64</v>
@@ -13284,16 +13242,16 @@
         <v>65</v>
       </c>
       <c r="E74" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G74" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="H74" s="8" t="s">
         <v>590</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>592</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>70</v>
@@ -13356,7 +13314,7 @@
       <c r="AG74" s="8"/>
       <c r="AH74" s="8"/>
       <c r="AI74" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AJ74" s="8"/>
       <c r="AK74" s="7" t="s">
@@ -13400,7 +13358,7 @@
       </c>
       <c r="BB74" s="8"/>
       <c r="BC74" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="BD74" s="8"/>
       <c r="BE74" s="8"/>
@@ -13408,16 +13366,16 @@
       <c r="BG74" s="8"/>
       <c r="BH74" s="8"/>
       <c r="BI74" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="BJ74" s="17"/>
     </row>
-    <row r="75" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>102</v>
@@ -13426,16 +13384,16 @@
         <v>103</v>
       </c>
       <c r="E75" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="H75" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>600</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>106</v>
@@ -13459,7 +13417,7 @@
         <v>153</v>
       </c>
       <c r="P75" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Q75" s="8" t="s">
         <v>326</v>
@@ -13547,19 +13505,19 @@
       <c r="BF75" s="8"/>
       <c r="BG75" s="8"/>
       <c r="BH75" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="BI75" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="BJ75" s="17"/>
     </row>
-    <row r="76" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>102</v>
@@ -13568,16 +13526,16 @@
         <v>103</v>
       </c>
       <c r="E76" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G76" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="H76" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>607</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>106</v>
@@ -13666,12 +13624,12 @@
       <c r="BI76" s="8"/>
       <c r="BJ76" s="17"/>
     </row>
-    <row r="77" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>64</v>
@@ -13680,16 +13638,16 @@
         <v>65</v>
       </c>
       <c r="E77" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="H77" s="8" t="s">
         <v>609</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>611</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>70</v>
@@ -13713,13 +13671,13 @@
         <v>75</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="Q77" s="8" t="s">
         <v>77</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="S77" s="9">
         <v>210</v>
@@ -13809,19 +13767,19 @@
       <c r="BF77" s="8"/>
       <c r="BG77" s="8"/>
       <c r="BH77" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="BI77" s="8"/>
       <c r="BJ77" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="78" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>102</v>
@@ -13830,16 +13788,16 @@
         <v>103</v>
       </c>
       <c r="E78" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="G78" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="H78" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>618</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>106</v>
@@ -13863,11 +13821,11 @@
         <v>275</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Q78" s="8"/>
       <c r="R78" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S78" s="9">
         <v>90</v>
@@ -13953,19 +13911,19 @@
       <c r="BF78" s="8"/>
       <c r="BG78" s="8"/>
       <c r="BH78" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="BI78" s="8"/>
       <c r="BJ78" s="17" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
-    <row r="79" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>102</v>
@@ -13974,16 +13932,16 @@
         <v>103</v>
       </c>
       <c r="E79" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="G79" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="H79" s="8" t="s">
         <v>622</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>624</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>106</v>
@@ -14093,17 +14051,17 @@
       <c r="BF79" s="8"/>
       <c r="BG79" s="8"/>
       <c r="BH79" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="BI79" s="8"/>
       <c r="BJ79" s="17"/>
     </row>
-    <row r="80" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>64</v>
@@ -14112,16 +14070,16 @@
         <v>65</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>70</v>
@@ -14212,12 +14170,12 @@
       <c r="BI80" s="8"/>
       <c r="BJ80" s="17"/>
     </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>102</v>
@@ -14226,16 +14184,16 @@
         <v>103</v>
       </c>
       <c r="E81" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G81" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="H81" s="8" t="s">
         <v>632</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>634</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>189</v>
@@ -14259,10 +14217,10 @@
         <v>153</v>
       </c>
       <c r="P81" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="R81" s="8" t="s">
         <v>77</v>
@@ -14347,19 +14305,19 @@
       <c r="BF81" s="8"/>
       <c r="BG81" s="8"/>
       <c r="BH81" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="BI81" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="BJ81" s="17"/>
     </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>102</v>
@@ -14368,16 +14326,16 @@
         <v>103</v>
       </c>
       <c r="E82" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="G82" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="H82" s="8" t="s">
         <v>639</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>641</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>189</v>
@@ -14480,16 +14438,16 @@
       <c r="BG82" s="8"/>
       <c r="BH82" s="8"/>
       <c r="BI82" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="BJ82" s="17"/>
     </row>
-    <row r="83" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>194</v>
@@ -14498,16 +14456,16 @@
         <v>195</v>
       </c>
       <c r="E83" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="H83" s="8" t="s">
         <v>644</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>646</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>220</v>
@@ -14586,12 +14544,12 @@
       <c r="BI83" s="8"/>
       <c r="BJ83" s="17"/>
     </row>
-    <row r="84" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>270</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>64</v>
@@ -14600,16 +14558,16 @@
         <v>65</v>
       </c>
       <c r="E84" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="G84" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="H84" s="8" t="s">
         <v>649</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>651</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>70</v>
@@ -14735,19 +14693,19 @@
       <c r="BF84" s="8"/>
       <c r="BG84" s="8"/>
       <c r="BH84" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="BI84" s="8"/>
       <c r="BJ84" s="17" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
-    <row r="85" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>102</v>
@@ -14756,16 +14714,16 @@
         <v>103</v>
       </c>
       <c r="E85" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="H85" s="8" t="s">
         <v>654</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>656</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>106</v>
@@ -14789,7 +14747,7 @@
         <v>109</v>
       </c>
       <c r="P85" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Q85" s="8" t="s">
         <v>77</v>
@@ -14869,7 +14827,7 @@
         <v>0</v>
       </c>
       <c r="BB85" s="8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="BC85" s="8"/>
       <c r="BD85" s="8"/>
@@ -14877,17 +14835,17 @@
       <c r="BF85" s="8"/>
       <c r="BG85" s="8"/>
       <c r="BH85" s="8" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="BI85" s="8"/>
       <c r="BJ85" s="17"/>
     </row>
-    <row r="86" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>194</v>
@@ -14896,16 +14854,16 @@
         <v>195</v>
       </c>
       <c r="E86" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="H86" s="8" t="s">
         <v>659</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>661</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>220</v>
@@ -14996,12 +14954,12 @@
       <c r="BI86" s="8"/>
       <c r="BJ86" s="17"/>
     </row>
-    <row r="87" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>64</v>
@@ -15010,16 +14968,16 @@
         <v>65</v>
       </c>
       <c r="E87" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="G87" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="H87" s="8" t="s">
         <v>664</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>666</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>70</v>
@@ -15126,22 +15084,22 @@
       <c r="BC87" s="8"/>
       <c r="BD87" s="8"/>
       <c r="BE87" s="8" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="BF87" s="8"/>
       <c r="BG87" s="8"/>
       <c r="BH87" s="8" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="BI87" s="8"/>
       <c r="BJ87" s="17"/>
     </row>
-    <row r="88" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>194</v>
@@ -15150,16 +15108,16 @@
         <v>195</v>
       </c>
       <c r="E88" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="H88" s="8" t="s">
         <v>670</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>672</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>342</v>
@@ -15250,12 +15208,12 @@
       <c r="BI88" s="8"/>
       <c r="BJ88" s="17"/>
     </row>
-    <row r="89" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>102</v>
@@ -15264,16 +15222,16 @@
         <v>103</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="G89" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="H89" s="8" t="s">
         <v>675</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>677</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>189</v>
@@ -15376,16 +15334,16 @@
       <c r="BG89" s="8"/>
       <c r="BH89" s="8"/>
       <c r="BI89" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="BJ89" s="17"/>
     </row>
-    <row r="90" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>194</v>
@@ -15394,16 +15352,16 @@
         <v>195</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>199</v>
@@ -15494,12 +15452,12 @@
       <c r="BI90" s="8"/>
       <c r="BJ90" s="17"/>
     </row>
-    <row r="91" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>102</v>
@@ -15508,16 +15466,16 @@
         <v>103</v>
       </c>
       <c r="E91" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="H91" s="8" t="s">
         <v>685</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>687</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>106</v>
@@ -15544,7 +15502,7 @@
         <v>357</v>
       </c>
       <c r="Q91" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="R91" s="8" t="s">
         <v>77</v>
@@ -15629,19 +15587,19 @@
       <c r="BF91" s="8"/>
       <c r="BG91" s="8"/>
       <c r="BH91" s="8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="BI91" s="8" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="BJ91" s="17"/>
     </row>
-    <row r="92" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>64</v>
@@ -15650,16 +15608,16 @@
         <v>65</v>
       </c>
       <c r="E92" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="H92" s="8" t="s">
         <v>692</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>694</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>70</v>
@@ -15769,17 +15727,17 @@
       <c r="BF92" s="8"/>
       <c r="BG92" s="8"/>
       <c r="BH92" s="8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="BI92" s="8"/>
       <c r="BJ92" s="17"/>
     </row>
-    <row r="93" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>64</v>
@@ -15788,16 +15746,16 @@
         <v>65</v>
       </c>
       <c r="E93" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="H93" s="8" t="s">
         <v>698</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>700</v>
       </c>
       <c r="I93" s="7" t="s">
         <v>70</v>
@@ -15859,7 +15817,7 @@
       <c r="AF93" s="8"/>
       <c r="AG93" s="8"/>
       <c r="AH93" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AI93" s="8"/>
       <c r="AJ93" s="8"/>
@@ -15907,17 +15865,17 @@
       <c r="BF93" s="8"/>
       <c r="BG93" s="8"/>
       <c r="BH93" s="8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="BI93" s="8"/>
       <c r="BJ93" s="17"/>
     </row>
-    <row r="94" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>270</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>102</v>
@@ -15926,16 +15884,16 @@
         <v>103</v>
       </c>
       <c r="E94" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="H94" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>706</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>106</v>
@@ -16055,19 +16013,19 @@
       <c r="BF94" s="8"/>
       <c r="BG94" s="8"/>
       <c r="BH94" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="BI94" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="BJ94" s="17"/>
     </row>
-    <row r="95" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>102</v>
@@ -16076,16 +16034,16 @@
         <v>103</v>
       </c>
       <c r="E95" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="H95" s="8" t="s">
         <v>710</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>712</v>
       </c>
       <c r="I95" s="7" t="s">
         <v>189</v>
@@ -16129,20 +16087,20 @@
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
       <c r="X95" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="Y95" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Z95" s="8"/>
       <c r="AA95" s="8"/>
       <c r="AB95" s="8"/>
       <c r="AC95" s="8"/>
       <c r="AD95" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AE95" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AF95" s="8"/>
       <c r="AG95" s="8"/>
@@ -16188,16 +16146,16 @@
       <c r="BG95" s="8"/>
       <c r="BH95" s="8"/>
       <c r="BI95" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="BJ95" s="17"/>
     </row>
-    <row r="96" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>64</v>
@@ -16206,16 +16164,16 @@
         <v>65</v>
       </c>
       <c r="E96" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="G96" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="H96" s="8" t="s">
         <v>718</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>720</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>70</v>
@@ -16230,7 +16188,7 @@
         <v>74</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="N96" s="7" t="s">
         <v>74</v>
@@ -16242,7 +16200,7 @@
         <v>77</v>
       </c>
       <c r="Q96" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="R96" s="8" t="s">
         <v>77</v>
@@ -16278,7 +16236,7 @@
       <c r="AG96" s="8"/>
       <c r="AH96" s="8"/>
       <c r="AI96" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AJ96" s="8"/>
       <c r="AK96" s="7" t="s">
@@ -16323,16 +16281,16 @@
       <c r="BD96" s="8"/>
       <c r="BE96" s="8"/>
       <c r="BF96" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="BG96" s="8"/>
       <c r="BH96" s="8"/>
       <c r="BI96" s="8" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="BJ96" s="17"/>
     </row>
-    <row r="97" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>351</v>
       </c>
@@ -16346,16 +16304,16 @@
         <v>65</v>
       </c>
       <c r="E97" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="G97" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="H97" s="8" t="s">
         <v>727</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>729</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>70</v>
@@ -16462,22 +16420,22 @@
       <c r="BC97" s="8"/>
       <c r="BD97" s="8"/>
       <c r="BE97" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="BF97" s="8"/>
       <c r="BG97" s="8"/>
       <c r="BH97" s="8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="BI97" s="8"/>
       <c r="BJ97" s="17"/>
     </row>
-    <row r="98" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>102</v>
@@ -16486,16 +16444,16 @@
         <v>103</v>
       </c>
       <c r="E98" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="G98" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="H98" s="8" t="s">
         <v>733</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>735</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>189</v>
@@ -16522,7 +16480,7 @@
         <v>77</v>
       </c>
       <c r="Q98" s="8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="R98" s="8" t="s">
         <v>77</v>
@@ -16539,20 +16497,20 @@
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
       <c r="X98" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="Y98" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="Z98" s="8"/>
       <c r="AA98" s="8"/>
       <c r="AB98" s="8"/>
       <c r="AC98" s="8"/>
       <c r="AD98" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AE98" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AF98" s="8"/>
       <c r="AG98" s="8"/>
@@ -16598,16 +16556,16 @@
       <c r="BG98" s="8"/>
       <c r="BH98" s="8"/>
       <c r="BI98" s="8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="BJ98" s="17"/>
     </row>
-    <row r="99" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>102</v>
@@ -16616,16 +16574,16 @@
         <v>103</v>
       </c>
       <c r="E99" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="H99" s="8" t="s">
         <v>741</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>743</v>
       </c>
       <c r="I99" s="7" t="s">
         <v>106</v>
@@ -16731,17 +16689,17 @@
       <c r="BF99" s="8"/>
       <c r="BG99" s="8"/>
       <c r="BH99" s="8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="BI99" s="8"/>
       <c r="BJ99" s="17"/>
     </row>
-    <row r="100" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>102</v>
@@ -16750,16 +16708,16 @@
         <v>103</v>
       </c>
       <c r="E100" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="H100" s="8" t="s">
         <v>746</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>746</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>748</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>106</v>
@@ -16861,17 +16819,17 @@
       <c r="BF100" s="8"/>
       <c r="BG100" s="8"/>
       <c r="BH100" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="BI100" s="8"/>
       <c r="BJ100" s="17"/>
     </row>
-    <row r="101" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>194</v>
@@ -16880,16 +16838,16 @@
         <v>195</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>220</v>
@@ -16980,12 +16938,12 @@
       <c r="BI101" s="8"/>
       <c r="BJ101" s="17"/>
     </row>
-    <row r="102" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>64</v>
@@ -16994,16 +16952,16 @@
         <v>65</v>
       </c>
       <c r="E102" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="G102" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="H102" s="8" t="s">
         <v>756</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>757</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>758</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>70</v>
@@ -17073,11 +17031,11 @@
         <v>124</v>
       </c>
       <c r="AH102" s="8" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AI102" s="8"/>
       <c r="AJ102" s="8" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AK102" s="7" t="s">
         <v>81</v>
@@ -17129,19 +17087,19 @@
       <c r="BF102" s="8"/>
       <c r="BG102" s="8"/>
       <c r="BH102" s="8" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="BI102" s="8"/>
       <c r="BJ102" s="17" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
-    <row r="103" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>64</v>
@@ -17150,16 +17108,16 @@
         <v>65</v>
       </c>
       <c r="E103" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="G103" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="H103" s="8" t="s">
         <v>763</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>765</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>70</v>
@@ -17282,26 +17240,26 @@
       <c r="BC103" s="8"/>
       <c r="BD103" s="8"/>
       <c r="BE103" s="8" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="BF103" s="8"/>
       <c r="BG103" s="8" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="BH103" s="8" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="BI103" s="8"/>
       <c r="BJ103" s="17" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
-    <row r="104" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>102</v>
@@ -17310,16 +17268,16 @@
         <v>103</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="I104" s="7" t="s">
         <v>106</v>
@@ -17343,7 +17301,7 @@
         <v>109</v>
       </c>
       <c r="P104" s="8" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="Q104" s="8" t="s">
         <v>77</v>
@@ -17421,17 +17379,17 @@
       <c r="BF104" s="8"/>
       <c r="BG104" s="8"/>
       <c r="BH104" s="8" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="BI104" s="8"/>
       <c r="BJ104" s="17"/>
     </row>
-    <row r="105" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>64</v>
@@ -17440,16 +17398,16 @@
         <v>65</v>
       </c>
       <c r="E105" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="G105" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="H105" s="8" t="s">
         <v>774</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="H105" s="8" t="s">
-        <v>776</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>70</v>
@@ -17560,12 +17518,12 @@
       <c r="BI105" s="8"/>
       <c r="BJ105" s="17"/>
     </row>
-    <row r="106" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>64</v>
@@ -17574,16 +17532,16 @@
         <v>65</v>
       </c>
       <c r="E106" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="H106" s="8" t="s">
         <v>778</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>774</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>780</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>70</v>
@@ -17660,12 +17618,12 @@
       <c r="BI106" s="8"/>
       <c r="BJ106" s="17"/>
     </row>
-    <row r="107" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>64</v>
@@ -17674,16 +17632,16 @@
         <v>65</v>
       </c>
       <c r="E107" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="G107" s="8" t="s">
         <v>782</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="H107" s="8" t="s">
         <v>783</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>785</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>70</v>
@@ -17766,12 +17724,12 @@
       <c r="BI107" s="8"/>
       <c r="BJ107" s="17"/>
     </row>
-    <row r="108" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>102</v>
@@ -17780,16 +17738,16 @@
         <v>103</v>
       </c>
       <c r="E108" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="G108" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="H108" s="8" t="s">
         <v>787</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="H108" s="8" t="s">
-        <v>789</v>
       </c>
       <c r="I108" s="7" t="s">
         <v>106</v>
@@ -17909,19 +17867,19 @@
       <c r="BF108" s="8"/>
       <c r="BG108" s="8"/>
       <c r="BH108" s="8" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="BI108" s="8"/>
       <c r="BJ108" s="17" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
-    <row r="109" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>64</v>
@@ -17930,16 +17888,16 @@
         <v>65</v>
       </c>
       <c r="E109" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="H109" s="8" t="s">
         <v>792</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="H109" s="8" t="s">
-        <v>794</v>
       </c>
       <c r="I109" s="7" t="s">
         <v>70</v>
@@ -17963,13 +17921,13 @@
         <v>75</v>
       </c>
       <c r="P109" s="8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="Q109" s="8" t="s">
         <v>77</v>
       </c>
       <c r="R109" s="8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S109" s="9">
         <v>210</v>
@@ -18009,11 +17967,11 @@
         <v>124</v>
       </c>
       <c r="AH109" s="8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AI109" s="8"/>
       <c r="AJ109" s="8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AK109" s="7" t="s">
         <v>81</v>
@@ -18059,19 +18017,19 @@
       <c r="BF109" s="8"/>
       <c r="BG109" s="8"/>
       <c r="BH109" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="BI109" s="8"/>
       <c r="BJ109" s="17" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
-    <row r="110" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>64</v>
@@ -18080,16 +18038,16 @@
         <v>65</v>
       </c>
       <c r="E110" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="G110" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="H110" s="8" t="s">
         <v>800</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>802</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>70</v>
@@ -18203,29 +18161,29 @@
         <v>0</v>
       </c>
       <c r="BB110" s="8" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="BC110" s="8"/>
       <c r="BD110" s="8" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="BE110" s="8"/>
       <c r="BF110" s="8"/>
       <c r="BG110" s="8"/>
       <c r="BH110" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="BI110" s="8"/>
       <c r="BJ110" s="17" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
-    <row r="111" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>64</v>
@@ -18234,16 +18192,16 @@
         <v>65</v>
       </c>
       <c r="E111" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="G111" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="H111" s="8" t="s">
         <v>807</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="H111" s="8" t="s">
-        <v>809</v>
       </c>
       <c r="I111" s="7" t="s">
         <v>70</v>
@@ -18267,13 +18225,13 @@
         <v>75</v>
       </c>
       <c r="P111" s="8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q111" s="8" t="s">
         <v>77</v>
       </c>
       <c r="R111" s="8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="S111" s="9">
         <v>210</v>
@@ -18363,29 +18321,29 @@
         <v>0</v>
       </c>
       <c r="BB111" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="BC111" s="8"/>
       <c r="BD111" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="BE111" s="8"/>
       <c r="BF111" s="8"/>
       <c r="BG111" s="8"/>
       <c r="BH111" s="8" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="BI111" s="8"/>
       <c r="BJ111" s="17" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
-    <row r="112" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>102</v>
@@ -18394,16 +18352,16 @@
         <v>103</v>
       </c>
       <c r="E112" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="H112" s="8" t="s">
         <v>813</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="H112" s="8" t="s">
-        <v>815</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>106</v>
@@ -18427,13 +18385,13 @@
         <v>75</v>
       </c>
       <c r="P112" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Q112" s="8" t="s">
         <v>77</v>
       </c>
       <c r="R112" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="S112" s="9">
         <v>90</v>
@@ -18523,14 +18481,14 @@
       <c r="BF112" s="8"/>
       <c r="BG112" s="8"/>
       <c r="BH112" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="BI112" s="8"/>
       <c r="BJ112" s="17" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
-    <row r="113" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>116</v>
       </c>
@@ -18544,16 +18502,16 @@
         <v>103</v>
       </c>
       <c r="E113" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="G113" s="8" t="s">
         <v>817</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="H113" s="8" t="s">
         <v>818</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>820</v>
       </c>
       <c r="I113" s="7" t="s">
         <v>189</v>
@@ -18580,7 +18538,7 @@
         <v>77</v>
       </c>
       <c r="Q113" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="R113" s="8" t="s">
         <v>77</v>
@@ -18597,20 +18555,20 @@
       <c r="V113" s="8"/>
       <c r="W113" s="8"/>
       <c r="X113" s="8" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="Y113" s="8" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="Z113" s="8"/>
       <c r="AA113" s="8"/>
       <c r="AB113" s="8"/>
       <c r="AC113" s="8"/>
       <c r="AD113" s="8" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AE113" s="8" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AF113" s="8"/>
       <c r="AG113" s="8"/>
@@ -18661,21 +18619,21 @@
       <c r="BD113" s="8"/>
       <c r="BE113" s="8"/>
       <c r="BF113" s="8" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="BG113" s="8"/>
       <c r="BH113" s="8"/>
       <c r="BI113" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="BJ113" s="17"/>
     </row>
-    <row r="114" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>64</v>
@@ -18684,16 +18642,16 @@
         <v>65</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="I114" s="7" t="s">
         <v>220</v>
@@ -18778,12 +18736,12 @@
       <c r="BI114" s="8"/>
       <c r="BJ114" s="17"/>
     </row>
-    <row r="115" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>64</v>
@@ -18792,22 +18750,22 @@
         <v>65</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>100</v>
       </c>
       <c r="G115" s="13" t="s">
+        <v>829</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="I115" s="12" t="s">
         <v>831</v>
       </c>
-      <c r="H115" s="13" t="s">
+      <c r="J115" s="12" t="s">
         <v>832</v>
-      </c>
-      <c r="I115" s="12" t="s">
-        <v>833</v>
-      </c>
-      <c r="J115" s="12" t="s">
-        <v>834</v>
       </c>
       <c r="K115" s="12" t="s">
         <v>93</v>
@@ -18888,7 +18846,7 @@
       <c r="BI115" s="13"/>
       <c r="BJ115" s="18"/>
     </row>
-    <row r="116" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>

--- a/_data/#3787_fachrichtung.xlsx
+++ b/_data/#3787_fachrichtung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3439" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3435" uniqueCount="833">
   <si>
     <t>nummer</t>
   </si>
@@ -266,7 +266,7 @@
     <t>Bachelor of Science</t>
   </si>
   <si>
-    <t>---~0~|---~0~|Praxissemester~6~</t>
+    <t>---#0#|---#0#|Praxissemester#6#</t>
   </si>
   <si>
     <t>IW</t>
@@ -320,7 +320,7 @@
     <t>Bachelor of Arts</t>
   </si>
   <si>
-    <t>Vorpraxis~0~8|---~0~|---~0~</t>
+    <t>Vorpraxis#0#8|---#0#|---#0#</t>
   </si>
   <si>
     <t>AD</t>
@@ -365,7 +365,7 @@
     <t>Master of Arts</t>
   </si>
   <si>
-    <t>---~0~|---~0~|---~0~</t>
+    <t>---#0#|---#0#|---#0#</t>
   </si>
   <si>
     <t>Vertiefung Bauen im Bestand;Vertiefung Gestaltung;Vertiefung Nachhaltige Gebäudeplanung;Vertiefung Städtebau</t>
@@ -401,7 +401,7 @@
     <t>Bachelor of Engineering</t>
   </si>
   <si>
-    <t>---~0~|Vorpraxis~0~10|Praxissemester~6~20</t>
+    <t>---#0#|Vorpraxis#0#10|Praxissemester#6#20</t>
   </si>
   <si>
     <t>WW</t>
@@ -455,10 +455,10 @@
     <t>319B</t>
   </si>
   <si>
-    <t>Vorpraxis~4~6|---~0~|Praxissemester~5~16</t>
-  </si>
-  <si>
-    <t>---~0~|---~0~|Praxissemester~5~16</t>
+    <t>Vorpraxis#4#6|---#0#|Praxissemester#5#16</t>
+  </si>
+  <si>
+    <t>---#0#|---#0#|Praxissemester#5#16</t>
   </si>
   <si>
     <t xml:space="preserve">Allgemeines Bauingenieurwesen ;Stahlbau und Fassade </t>
@@ -548,7 +548,7 @@
     <t>216B</t>
   </si>
   <si>
-    <t>Vorpraxis~0~|---~0~|Praxissemester~5~</t>
+    <t>Vorpraxis#0#|---#0#|Praxissemester#5#</t>
   </si>
   <si>
     <t>BW</t>
@@ -650,7 +650,7 @@
     <t>220B</t>
   </si>
   <si>
-    <t>---~0~|---~0~|Praxissemester~4~18</t>
+    <t>---#0#|---#0#|Praxissemester#4#18</t>
   </si>
   <si>
     <t>Agiles Projektmanagement;Bank-, Finanz- und Risikomanagement I;Bank-, Finanz- und Risikomanagement II;Controlling;Digital Business Transformation;Einkaufs- und Beschaffungsmanagement;Human Resource Management I;Human Resource Management II;International Management I;International Management II;Marketingmanagement I;Marketingmanagement II;Rechnungswesen;Servicemanagement;Steuern I;Steuern II;Supply Chain Innovation;Supply Chain Prozesse;Unternehmen und Recht;Versicherungsmanagement</t>
@@ -707,7 +707,7 @@
     <t>CH-B</t>
   </si>
   <si>
-    <t>---~0~|---~0~|Praxissemester~5~19</t>
+    <t>---#0#|---#0#|Praxissemester#5#19</t>
   </si>
   <si>
     <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/06_CHB_219_SPO.pdf</t>
@@ -728,7 +728,7 @@
     <t>DC-B</t>
   </si>
   <si>
-    <t>---~0~|---~0~|Praxissemester~4~</t>
+    <t>---#0#|---#0#|Praxissemester#4#</t>
   </si>
   <si>
     <t>IM</t>
@@ -773,7 +773,7 @@
     <t>119B</t>
   </si>
   <si>
-    <t>---~0~|---~0~|Praxissemester~5~20</t>
+    <t>---#0#|---#0#|Praxissemester#5#20</t>
   </si>
   <si>
     <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/05_DRB_120_SPO.pdf</t>
@@ -797,7 +797,7 @@
     <t>117B</t>
   </si>
   <si>
-    <t>---~0~|---~0~|Praxissemester~5~18</t>
+    <t>---#0#|---#0#|Praxissemester#5#18</t>
   </si>
   <si>
     <t>G</t>
@@ -869,7 +869,7 @@
     <t>EI-B</t>
   </si>
   <si>
-    <t>---~0~|---~0~|Praxissemester~5~</t>
+    <t>---#0#|---#0#|Praxissemester#5#</t>
   </si>
   <si>
     <t>Allgemeine Elektrotechnik;Automatisierungstechnik;Kommunikationstechnik;Technische Informatik</t>
@@ -941,7 +941,7 @@
     <t>FA-B</t>
   </si>
   <si>
-    <t>Vorpraxis~0~12|---~0~|Praxissemester~5~20</t>
+    <t>Vorpraxis#0#12|---#0#|Praxissemester#5#20</t>
   </si>
   <si>
     <t>Antriebssysteme;Erprobung und Messtechnik;Fahrdynamik und Fahrzeugakustik ;Fahrzeugaufbau;Fahrzeugmechatronik;Produktentwicklung;Sachverständigenwesen;Strukturanalyse</t>
@@ -986,7 +986,7 @@
     <t>Diplom-Ingenieurin (FH)</t>
   </si>
   <si>
-    <t>---~0~|1.Praxissemester~3~|2.Praxissemester~6~</t>
+    <t>---#0#|1.Praxissemester#3#|2.Praxissemester#6#</t>
   </si>
   <si>
     <t>Fahrzeugtechnik;Luft- und Raumfahrttechnik</t>
@@ -1073,10 +1073,10 @@
     <t>GD-B</t>
   </si>
   <si>
-    <t>---~0~|---~0~|Praxissemester~6~18</t>
-  </si>
-  <si>
-    <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/08_GDB_216_SPO.pdf</t>
+    <t>---#0#|---#0#|Praxissemester#6#18</t>
+  </si>
+  <si>
+    <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/08_GDB_220_SPO.pdf</t>
   </si>
   <si>
     <t>11</t>
@@ -1493,7 +1493,7 @@
     <t>LM-B</t>
   </si>
   <si>
-    <t>---~0~|Vorpraxis~0~10|Praxissemester~5~20</t>
+    <t>---#0#|Vorpraxis#0#10|Praxissemester#5#20</t>
   </si>
   <si>
     <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/09_LMB_219_SPO.pdf</t>
@@ -1595,7 +1595,7 @@
     <t>215B</t>
   </si>
   <si>
-    <t>---~0~0|---~0~|2.Praxissemester~6~</t>
+    <t>---#0#0|---#0#|2.Praxissemester#6#</t>
   </si>
   <si>
     <t>Gerätetechnik;Medizintechnik</t>
@@ -1667,7 +1667,7 @@
     <t>MT-B</t>
   </si>
   <si>
-    <t>---~0~|---~0~|Praxissemester~9~</t>
+    <t>---#0#|---#0#|Praxissemester#9#</t>
   </si>
   <si>
     <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/06_MTB_215_SPO.pdf</t>
@@ -1691,7 +1691,7 @@
     <t>114B</t>
   </si>
   <si>
-    <t>---~0~|Praxisphase 1~3~|Praxisphase 2~6~</t>
+    <t>---#0#|Praxisphase 1#3#|Praxisphase 2#6#</t>
   </si>
   <si>
     <t>Produktion und Automatisierung (international) Master</t>
@@ -1736,7 +1736,7 @@
     <t>211B</t>
   </si>
   <si>
-    <t>---~0~|---~0~|2.Praxissemester~0~</t>
+    <t>---#0#|---#0#|2.Praxissemester#0#</t>
   </si>
   <si>
     <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/11_PFB_211_SPO.pdf</t>
@@ -1799,7 +1799,7 @@
     <t>PI-B</t>
   </si>
   <si>
-    <t>---~0~|1.Praxissemester~9~|2.Praxissemester~10~</t>
+    <t>---#0#|1.Praxissemester#9#|2.Praxissemester#10#</t>
   </si>
   <si>
     <t>Betriebswirtschaftslehre und Unternehmensführung;Kultur;Wirtschaftsinformatik</t>
@@ -2123,7 +2123,7 @@
     <t>SK-B</t>
   </si>
   <si>
-    <t>---~0~|Praxisphase 1~0~|---~0~</t>
+    <t>---#0#|Praxisphase 1#0#|---#0#</t>
   </si>
   <si>
     <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/11_SKB_119_SPO.pdf</t>
@@ -2189,7 +2189,7 @@
     <t>318B</t>
   </si>
   <si>
-    <t>---~0~|---~0~|2.Praxissemester~9~</t>
+    <t>---#0#|---#0#|2.Praxissemester#9#</t>
   </si>
   <si>
     <t>Bildung, Kultur, Medien in der Sozialen Arbeit;Cultural Studies in der Sozialen Arbeit;Soziale Arbeit in Kindheit, Jugend und Familie;Soziale Arbeit und Gesundheit;Sozialmanagement</t>
@@ -2297,7 +2297,7 @@
     <t>TN-B</t>
   </si>
   <si>
-    <t>Vorpraxis~0~6|---~0~|Praxissemester~5~18</t>
+    <t>Vorpraxis#0#6|---#0#|Praxissemester#5#18</t>
   </si>
   <si>
     <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/05_TNB_218_SPO.pdf</t>
@@ -2408,7 +2408,7 @@
     <t>210B</t>
   </si>
   <si>
-    <t>---~0~|---~0~|Praxissemester~5~24</t>
+    <t>---#0#|---#0#|Praxissemester#5#24</t>
   </si>
   <si>
     <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/05_VSB_210_SPO.pdf</t>
@@ -7625,13 +7625,13 @@
         <v>75</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="Q33" s="8" t="s">
         <v>77</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="S33" s="9">
         <v>210</v>
@@ -7642,34 +7642,18 @@
       <c r="U33" s="9">
         <v>210</v>
       </c>
-      <c r="V33" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="W33" s="8" t="s">
-        <v>124</v>
-      </c>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
-      <c r="Z33" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA33" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB33" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC33" s="8" t="s">
-        <v>124</v>
-      </c>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
       <c r="AE33" s="8"/>
-      <c r="AF33" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG33" s="8" t="s">
-        <v>124</v>
-      </c>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
       <c r="AH33" s="8" t="s">
         <v>349</v>
       </c>
@@ -8269,14 +8253,18 @@
       <c r="P38" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="Q38" s="8"/>
+      <c r="Q38" s="8" t="s">
+        <v>336</v>
+      </c>
       <c r="R38" s="8" t="s">
         <v>191</v>
       </c>
       <c r="S38" s="9">
         <v>90</v>
       </c>
-      <c r="T38" s="9"/>
+      <c r="T38" s="9">
+        <v>90</v>
+      </c>
       <c r="U38" s="9">
         <v>90</v>
       </c>
@@ -8295,7 +8283,9 @@
       <c r="AH38" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="AI38" s="8"/>
+      <c r="AI38" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="AJ38" s="8" t="s">
         <v>113</v>
       </c>
@@ -8330,7 +8320,9 @@
       <c r="AY38" s="9">
         <v>1</v>
       </c>
-      <c r="AZ38" s="9"/>
+      <c r="AZ38" s="9">
+        <v>1</v>
+      </c>
       <c r="BA38" s="9">
         <v>1</v>
       </c>
@@ -8340,14 +8332,18 @@
       <c r="BE38" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="BF38" s="8"/>
+      <c r="BF38" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="BG38" s="8" t="s">
         <v>382</v>
       </c>
       <c r="BH38" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="BI38" s="8"/>
+      <c r="BI38" s="8" t="s">
+        <v>383</v>
+      </c>
       <c r="BJ38" s="17" t="s">
         <v>383</v>
       </c>

--- a/_data/#3787_fachrichtung.xlsx
+++ b/_data/#3787_fachrichtung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3453" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3557" uniqueCount="836">
   <si>
     <t>nummer</t>
   </si>
@@ -290,6 +290,9 @@
     <t>X</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/06_AOB_214_SPO.pdf</t>
   </si>
   <si>
@@ -332,9 +335,6 @@
     <t>AD</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/01_ARB_219_SPO.pdf</t>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
     <t>KG-B</t>
   </si>
   <si>
-    <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/08_KGB_216_SPO.pdf</t>
+    <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/08_KGB_220_SPO.pdf</t>
   </si>
   <si>
     <t>LM</t>
@@ -2214,6 +2214,9 @@
   </si>
   <si>
     <t>SW-B</t>
+  </si>
+  <si>
+    <t>---#0#|---#0#|---#5#</t>
   </si>
   <si>
     <t>https://w3-mediapool.hm.edu/media/dachmarke/dm_transfer/download_13/spo_6/spo_versionen/11_SWB_218_SPO.pdf</t>
@@ -3391,7 +3394,9 @@
       <c r="AU2" s="5"/>
       <c r="AV2" s="3"/>
       <c r="AW2" s="3"/>
-      <c r="AX2" s="2"/>
+      <c r="AX2" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="AY2" s="4">
         <v>0</v>
       </c>
@@ -3408,21 +3413,23 @@
       <c r="BF2" s="3"/>
       <c r="BG2" s="3"/>
       <c r="BH2" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BI2" s="3"/>
       <c r="BJ2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK2" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="BL2" s="16"/>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>66</v>
@@ -3431,16 +3438,16 @@
         <v>67</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>72</v>
@@ -3449,28 +3456,28 @@
         <v>73</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>76</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>77</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>79</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S3" s="9">
         <v>180</v>
@@ -3482,42 +3489,42 @@
         <v>180</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AB3" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="AC3" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
       <c r="AF3" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL3" s="7" t="s">
         <v>84</v>
@@ -3544,7 +3551,7 @@
       <c r="AV3" s="8"/>
       <c r="AW3" s="8"/>
       <c r="AX3" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AY3" s="9">
         <v>0</v>
@@ -3568,15 +3575,17 @@
       <c r="BJ3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="BK3" s="10"/>
+      <c r="BK3" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL3" s="17"/>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>104</v>
@@ -3585,10 +3594,10 @@
         <v>105</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>106</v>
@@ -3603,7 +3612,7 @@
         <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>110</v>
@@ -3661,7 +3670,7 @@
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL4" s="7" t="s">
         <v>84</v>
@@ -3687,7 +3696,9 @@
       <c r="AU4" s="10"/>
       <c r="AV4" s="8"/>
       <c r="AW4" s="8"/>
-      <c r="AX4" s="7"/>
+      <c r="AX4" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY4" s="9">
         <v>1</v>
       </c>
@@ -3710,7 +3721,9 @@
       </c>
       <c r="BI4" s="8"/>
       <c r="BJ4" s="8"/>
-      <c r="BK4" s="10"/>
+      <c r="BK4" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL4" s="17"/>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
@@ -3745,7 +3758,7 @@
         <v>73</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>75</v>
@@ -3845,7 +3858,9 @@
       <c r="AU5" s="10"/>
       <c r="AV5" s="8"/>
       <c r="AW5" s="8"/>
-      <c r="AX5" s="7"/>
+      <c r="AX5" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY5" s="9">
         <v>0</v>
       </c>
@@ -3868,7 +3883,9 @@
       <c r="BJ5" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="BK5" s="10"/>
+      <c r="BK5" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL5" s="17" t="s">
         <v>87</v>
       </c>
@@ -3881,7 +3898,7 @@
         <v>131</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>132</v>
@@ -3890,7 +3907,7 @@
         <v>133</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>134</v>
@@ -3901,7 +3918,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>76</v>
@@ -4032,7 +4049,7 @@
         <v>77</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>79</v>
@@ -4111,7 +4128,9 @@
       <c r="AU7" s="10"/>
       <c r="AV7" s="8"/>
       <c r="AW7" s="8"/>
-      <c r="AX7" s="7"/>
+      <c r="AX7" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY7" s="9">
         <v>1</v>
       </c>
@@ -4138,7 +4157,9 @@
       <c r="BJ7" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="BK7" s="10"/>
+      <c r="BK7" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL7" s="17"/>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
@@ -4245,7 +4266,9 @@
       <c r="AU8" s="10"/>
       <c r="AV8" s="8"/>
       <c r="AW8" s="8"/>
-      <c r="AX8" s="7"/>
+      <c r="AX8" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY8" s="9"/>
       <c r="AZ8" s="9">
         <v>1</v>
@@ -4266,7 +4289,9 @@
         <v>160</v>
       </c>
       <c r="BJ8" s="8"/>
-      <c r="BK8" s="10"/>
+      <c r="BK8" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL8" s="17"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
@@ -4395,7 +4420,9 @@
       <c r="AU9" s="10"/>
       <c r="AV9" s="8"/>
       <c r="AW9" s="8"/>
-      <c r="AX9" s="7"/>
+      <c r="AX9" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY9" s="9">
         <v>1</v>
       </c>
@@ -4426,7 +4453,9 @@
         <v>169</v>
       </c>
       <c r="BJ9" s="8"/>
-      <c r="BK9" s="10"/>
+      <c r="BK9" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL9" s="17"/>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
@@ -4461,7 +4490,7 @@
         <v>73</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>75</v>
@@ -4545,7 +4574,9 @@
       <c r="AU10" s="10"/>
       <c r="AV10" s="8"/>
       <c r="AW10" s="8"/>
-      <c r="AX10" s="7"/>
+      <c r="AX10" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY10" s="9">
         <v>0</v>
       </c>
@@ -4566,7 +4597,9 @@
       </c>
       <c r="BI10" s="8"/>
       <c r="BJ10" s="8"/>
-      <c r="BK10" s="10"/>
+      <c r="BK10" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL10" s="17"/>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
@@ -4601,7 +4634,7 @@
         <v>109</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>74</v>
@@ -4727,7 +4760,7 @@
         <v>192</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>110</v>
@@ -4844,7 +4877,7 @@
         <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>199</v>
@@ -4906,7 +4939,7 @@
         <v>83</v>
       </c>
       <c r="AL13" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AM13" s="7" t="s">
         <v>66</v>
@@ -4922,7 +4955,7 @@
       <c r="AV13" s="8"/>
       <c r="AW13" s="8"/>
       <c r="AX13" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AY13" s="9">
         <v>0</v>
@@ -5008,32 +5041,32 @@
         <v>210</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AB14" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="AC14" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD14" s="8"/>
       <c r="AE14" s="8"/>
       <c r="AF14" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG14" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH14" s="8" t="s">
         <v>210</v>
@@ -5076,7 +5109,7 @@
       <c r="AV14" s="8"/>
       <c r="AW14" s="8"/>
       <c r="AX14" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AY14" s="9">
         <v>2</v>
@@ -5141,7 +5174,7 @@
         <v>109</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>74</v>
@@ -5273,7 +5306,7 @@
         <v>223</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>76</v>
@@ -5389,7 +5422,7 @@
         <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>75</v>
@@ -5404,13 +5437,13 @@
         <v>77</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="8" t="s">
         <v>79</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S17" s="9">
         <v>210</v>
@@ -5483,7 +5516,9 @@
       <c r="AU17" s="10"/>
       <c r="AV17" s="8"/>
       <c r="AW17" s="8"/>
-      <c r="AX17" s="7"/>
+      <c r="AX17" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY17" s="9">
         <v>0</v>
       </c>
@@ -5506,7 +5541,9 @@
       <c r="BJ17" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="BK17" s="10"/>
+      <c r="BK17" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL17" s="17"/>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.25">
@@ -5541,7 +5578,7 @@
         <v>73</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>75</v>
@@ -5625,7 +5662,9 @@
       <c r="AU18" s="10"/>
       <c r="AV18" s="8"/>
       <c r="AW18" s="8"/>
-      <c r="AX18" s="7"/>
+      <c r="AX18" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY18" s="9">
         <v>0</v>
       </c>
@@ -5646,7 +5685,9 @@
       </c>
       <c r="BI18" s="8"/>
       <c r="BJ18" s="8"/>
-      <c r="BK18" s="10"/>
+      <c r="BK18" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL18" s="17"/>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.25">
@@ -5743,7 +5784,9 @@
       <c r="AU19" s="10"/>
       <c r="AV19" s="8"/>
       <c r="AW19" s="8"/>
-      <c r="AX19" s="7"/>
+      <c r="AX19" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY19" s="9">
         <v>0</v>
       </c>
@@ -5760,7 +5803,9 @@
       <c r="BH19" s="8"/>
       <c r="BI19" s="8"/>
       <c r="BJ19" s="8"/>
-      <c r="BK19" s="10"/>
+      <c r="BK19" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL19" s="17"/>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.25">
@@ -5795,7 +5840,7 @@
         <v>73</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>75</v>
@@ -5890,7 +5935,7 @@
       <c r="AV20" s="8"/>
       <c r="AW20" s="8"/>
       <c r="AX20" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AY20" s="9">
         <v>0</v>
@@ -5914,7 +5959,9 @@
       <c r="BJ20" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="BK20" s="10"/>
+      <c r="BK20" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL20" s="17"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.25">
@@ -5949,7 +5996,7 @@
         <v>73</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>75</v>
@@ -5982,20 +6029,20 @@
         <v>0</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W21" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC21" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD21" s="8"/>
       <c r="AE21" s="8"/>
@@ -6007,7 +6054,7 @@
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8"/>
       <c r="AK21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL21" s="7" t="s">
         <v>260</v>
@@ -6091,7 +6138,7 @@
         <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>74</v>
@@ -6149,7 +6196,7 @@
       <c r="AI22" s="8"/>
       <c r="AJ22" s="8"/>
       <c r="AK22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL22" s="7" t="s">
         <v>260</v>
@@ -6231,7 +6278,7 @@
         <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>74</v>
@@ -6291,7 +6338,9 @@
       <c r="AK23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="AL23" s="7"/>
+      <c r="AL23" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="AM23" s="7" t="s">
         <v>85</v>
       </c>
@@ -6305,7 +6354,9 @@
       <c r="AU23" s="10"/>
       <c r="AV23" s="8"/>
       <c r="AW23" s="8"/>
-      <c r="AX23" s="7"/>
+      <c r="AX23" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY23" s="9">
         <v>0</v>
       </c>
@@ -6326,7 +6377,9 @@
       </c>
       <c r="BI23" s="8"/>
       <c r="BJ23" s="8"/>
-      <c r="BK23" s="10"/>
+      <c r="BK23" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL23" s="17"/>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.25">
@@ -6367,7 +6420,7 @@
         <v>74</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>74</v>
@@ -6416,7 +6469,7 @@
       <c r="AV24" s="8"/>
       <c r="AW24" s="8"/>
       <c r="AX24" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AY24" s="9"/>
       <c r="AZ24" s="9"/>
@@ -6467,7 +6520,7 @@
         <v>73</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>75</v>
@@ -6567,7 +6620,9 @@
       <c r="AU25" s="10"/>
       <c r="AV25" s="8"/>
       <c r="AW25" s="8"/>
-      <c r="AX25" s="7"/>
+      <c r="AX25" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY25" s="9">
         <v>4</v>
       </c>
@@ -6594,7 +6649,9 @@
       <c r="BJ25" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="BK25" s="10"/>
+      <c r="BK25" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL25" s="17" t="s">
         <v>87</v>
       </c>
@@ -6637,7 +6694,7 @@
         <v>74</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N26" s="7" t="s">
         <v>74</v>
@@ -6803,7 +6860,7 @@
         <v>73</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>75</v>
@@ -6903,7 +6960,9 @@
       <c r="AU27" s="10"/>
       <c r="AV27" s="8"/>
       <c r="AW27" s="8"/>
-      <c r="AX27" s="7"/>
+      <c r="AX27" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY27" s="9">
         <v>0</v>
       </c>
@@ -6926,7 +6985,9 @@
       <c r="BJ27" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="BK27" s="10"/>
+      <c r="BK27" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL27" s="17" t="s">
         <v>87</v>
       </c>
@@ -6963,7 +7024,7 @@
         <v>73</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>75</v>
@@ -7063,7 +7124,9 @@
       <c r="AU28" s="10"/>
       <c r="AV28" s="8"/>
       <c r="AW28" s="8"/>
-      <c r="AX28" s="7"/>
+      <c r="AX28" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY28" s="9">
         <v>2</v>
       </c>
@@ -7090,7 +7153,9 @@
       <c r="BJ28" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="BK28" s="10"/>
+      <c r="BK28" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL28" s="17" t="s">
         <v>87</v>
       </c>
@@ -7127,7 +7192,7 @@
         <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>317</v>
@@ -7203,7 +7268,9 @@
       <c r="AU29" s="10"/>
       <c r="AV29" s="8"/>
       <c r="AW29" s="8"/>
-      <c r="AX29" s="7"/>
+      <c r="AX29" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY29" s="9">
         <v>2</v>
       </c>
@@ -7228,7 +7295,9 @@
       </c>
       <c r="BI29" s="8"/>
       <c r="BJ29" s="8"/>
-      <c r="BK29" s="10"/>
+      <c r="BK29" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL29" s="17"/>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.25">
@@ -7269,7 +7338,7 @@
         <v>74</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N30" s="7" t="s">
         <v>74</v>
@@ -7368,7 +7437,7 @@
       <c r="AV30" s="8"/>
       <c r="AW30" s="8"/>
       <c r="AX30" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AY30" s="9">
         <v>2</v>
@@ -7400,7 +7469,9 @@
       <c r="BJ30" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="BK30" s="10"/>
+      <c r="BK30" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL30" s="17"/>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.25">
@@ -7441,7 +7512,7 @@
         <v>74</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>76</v>
@@ -7529,7 +7600,9 @@
       <c r="AU31" s="10"/>
       <c r="AV31" s="8"/>
       <c r="AW31" s="8"/>
-      <c r="AX31" s="7"/>
+      <c r="AX31" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY31" s="9">
         <v>0</v>
       </c>
@@ -7552,7 +7625,9 @@
         <v>339</v>
       </c>
       <c r="BJ31" s="8"/>
-      <c r="BK31" s="10"/>
+      <c r="BK31" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL31" s="17"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.25">
@@ -7572,7 +7647,7 @@
         <v>341</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>342</v>
@@ -7587,10 +7662,10 @@
         <v>345</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>76</v>
@@ -7705,7 +7780,7 @@
         <v>73</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>75</v>
@@ -7841,7 +7916,7 @@
         <v>109</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>74</v>
@@ -8031,7 +8106,9 @@
       <c r="AU35" s="10"/>
       <c r="AV35" s="8"/>
       <c r="AW35" s="8"/>
-      <c r="AX35" s="7"/>
+      <c r="AX35" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY35" s="9"/>
       <c r="AZ35" s="9">
         <v>0</v>
@@ -8046,7 +8123,9 @@
       <c r="BH35" s="8"/>
       <c r="BI35" s="8"/>
       <c r="BJ35" s="8"/>
-      <c r="BK35" s="10"/>
+      <c r="BK35" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL35" s="17"/>
     </row>
     <row r="36" spans="1:64" x14ac:dyDescent="0.25">
@@ -8081,7 +8160,7 @@
         <v>73</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>75</v>
@@ -8159,7 +8238,9 @@
       <c r="AU36" s="10"/>
       <c r="AV36" s="8"/>
       <c r="AW36" s="8"/>
-      <c r="AX36" s="7"/>
+      <c r="AX36" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY36" s="9">
         <v>0</v>
       </c>
@@ -8182,7 +8263,9 @@
       <c r="BJ36" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="BK36" s="10"/>
+      <c r="BK36" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL36" s="17"/>
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.25">
@@ -8217,7 +8300,7 @@
         <v>73</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>75</v>
@@ -8275,7 +8358,9 @@
       <c r="AU37" s="10"/>
       <c r="AV37" s="8"/>
       <c r="AW37" s="8"/>
-      <c r="AX37" s="7"/>
+      <c r="AX37" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY37" s="9"/>
       <c r="AZ37" s="9">
         <v>0</v>
@@ -8290,7 +8375,9 @@
       <c r="BH37" s="8"/>
       <c r="BI37" s="8"/>
       <c r="BJ37" s="8"/>
-      <c r="BK37" s="10"/>
+      <c r="BK37" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL37" s="17"/>
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.25">
@@ -8331,7 +8418,7 @@
         <v>74</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N38" s="7" t="s">
         <v>74</v>
@@ -8405,7 +8492,9 @@
       <c r="AU38" s="10"/>
       <c r="AV38" s="8"/>
       <c r="AW38" s="8"/>
-      <c r="AX38" s="7"/>
+      <c r="AX38" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY38" s="9">
         <v>1</v>
       </c>
@@ -8436,7 +8525,9 @@
       <c r="BJ38" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="BK38" s="10"/>
+      <c r="BK38" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL38" s="17"/>
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.25">
@@ -8517,7 +8608,9 @@
       <c r="AK39" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="AL39" s="7"/>
+      <c r="AL39" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="AM39" s="7" t="s">
         <v>85</v>
       </c>
@@ -8531,7 +8624,9 @@
       <c r="AU39" s="10"/>
       <c r="AV39" s="8"/>
       <c r="AW39" s="8"/>
-      <c r="AX39" s="7"/>
+      <c r="AX39" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY39" s="9">
         <v>0</v>
       </c>
@@ -8639,7 +8734,9 @@
       <c r="AK40" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="AL40" s="7"/>
+      <c r="AL40" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AM40" s="7" t="s">
         <v>85</v>
       </c>
@@ -8661,7 +8758,9 @@
       <c r="AU40" s="10"/>
       <c r="AV40" s="8"/>
       <c r="AW40" s="8"/>
-      <c r="AX40" s="7"/>
+      <c r="AX40" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY40" s="9">
         <v>0</v>
       </c>
@@ -8717,7 +8816,7 @@
         <v>109</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>74</v>
@@ -8812,7 +8911,7 @@
       <c r="AV41" s="8"/>
       <c r="AW41" s="8"/>
       <c r="AX41" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AY41" s="9">
         <v>0</v>
@@ -8836,7 +8935,9 @@
       <c r="BJ41" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="BK41" s="10"/>
+      <c r="BK41" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL41" s="17"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.25">
@@ -8877,7 +8978,7 @@
         <v>76</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N42" s="7" t="s">
         <v>76</v>
@@ -8948,7 +9049,7 @@
       <c r="AV42" s="8"/>
       <c r="AW42" s="8"/>
       <c r="AX42" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AY42" s="9">
         <v>0</v>
@@ -9127,7 +9228,7 @@
         <v>76</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N44" s="7" t="s">
         <v>76</v>
@@ -9167,7 +9268,9 @@
       <c r="AK44" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AL44" s="7"/>
+      <c r="AL44" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AM44" s="7" t="s">
         <v>66</v>
       </c>
@@ -9185,7 +9288,9 @@
       <c r="AU44" s="10"/>
       <c r="AV44" s="8"/>
       <c r="AW44" s="8"/>
-      <c r="AX44" s="7"/>
+      <c r="AX44" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY44" s="9">
         <v>0</v>
       </c>
@@ -9237,7 +9342,7 @@
         <v>73</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>75</v>
@@ -9389,7 +9494,7 @@
         <v>73</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>75</v>
@@ -9404,13 +9509,13 @@
         <v>77</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q46" s="8" t="s">
         <v>79</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S46" s="9">
         <v>210</v>
@@ -9477,7 +9582,9 @@
       <c r="AU46" s="10"/>
       <c r="AV46" s="8"/>
       <c r="AW46" s="8"/>
-      <c r="AX46" s="7"/>
+      <c r="AX46" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY46" s="9">
         <v>0</v>
       </c>
@@ -9500,7 +9607,9 @@
       <c r="BJ46" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="BK46" s="10"/>
+      <c r="BK46" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL46" s="17"/>
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.25">
@@ -9535,7 +9644,7 @@
         <v>73</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>75</v>
@@ -9550,13 +9659,13 @@
         <v>77</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q47" s="8" t="s">
         <v>79</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S47" s="9">
         <v>210</v>
@@ -9629,7 +9738,9 @@
       <c r="AU47" s="10"/>
       <c r="AV47" s="8"/>
       <c r="AW47" s="8"/>
-      <c r="AX47" s="7"/>
+      <c r="AX47" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY47" s="9">
         <v>0</v>
       </c>
@@ -9652,7 +9763,9 @@
       <c r="BJ47" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="BK47" s="10"/>
+      <c r="BK47" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL47" s="17"/>
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.25">
@@ -9693,7 +9806,7 @@
         <v>74</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N48" s="7" t="s">
         <v>74</v>
@@ -9791,7 +9904,9 @@
       <c r="AU48" s="10"/>
       <c r="AV48" s="8"/>
       <c r="AW48" s="8"/>
-      <c r="AX48" s="7"/>
+      <c r="AX48" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY48" s="9">
         <v>1</v>
       </c>
@@ -9822,7 +9937,9 @@
       <c r="BJ48" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="BK48" s="10"/>
+      <c r="BK48" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL48" s="17"/>
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.25">
@@ -10125,7 +10242,7 @@
         <v>74</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>74</v>
@@ -10289,7 +10406,7 @@
         <v>74</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N52" s="7" t="s">
         <v>76</v>
@@ -10377,7 +10494,9 @@
       <c r="AU52" s="10"/>
       <c r="AV52" s="8"/>
       <c r="AW52" s="8"/>
-      <c r="AX52" s="7"/>
+      <c r="AX52" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY52" s="9">
         <v>0</v>
       </c>
@@ -10400,7 +10519,9 @@
         <v>465</v>
       </c>
       <c r="BJ52" s="8"/>
-      <c r="BK52" s="10"/>
+      <c r="BK52" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL52" s="17"/>
     </row>
     <row r="53" spans="1:64" x14ac:dyDescent="0.25">
@@ -10441,7 +10562,7 @@
         <v>74</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N53" s="7" t="s">
         <v>76</v>
@@ -10467,12 +10588,8 @@
       <c r="U53" s="9">
         <v>0</v>
       </c>
-      <c r="V53" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="W53" s="8" t="s">
-        <v>292</v>
-      </c>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
       <c r="X53" s="8" t="s">
         <v>291</v>
       </c>
@@ -10481,12 +10598,8 @@
       </c>
       <c r="Z53" s="8"/>
       <c r="AA53" s="8"/>
-      <c r="AB53" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="AC53" s="8" t="s">
-        <v>292</v>
-      </c>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
       <c r="AD53" s="8" t="s">
         <v>291</v>
       </c>
@@ -10529,7 +10642,9 @@
       <c r="AU53" s="10"/>
       <c r="AV53" s="8"/>
       <c r="AW53" s="8"/>
-      <c r="AX53" s="7"/>
+      <c r="AX53" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY53" s="9">
         <v>0</v>
       </c>
@@ -10550,7 +10665,9 @@
       </c>
       <c r="BI53" s="8"/>
       <c r="BJ53" s="8"/>
-      <c r="BK53" s="10"/>
+      <c r="BK53" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL53" s="17"/>
     </row>
     <row r="54" spans="1:64" x14ac:dyDescent="0.25">
@@ -10585,7 +10702,7 @@
         <v>73</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>75</v>
@@ -10661,7 +10778,9 @@
       <c r="AU54" s="10"/>
       <c r="AV54" s="8"/>
       <c r="AW54" s="8"/>
-      <c r="AX54" s="7"/>
+      <c r="AX54" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY54" s="9">
         <v>0</v>
       </c>
@@ -10682,7 +10801,9 @@
       </c>
       <c r="BI54" s="8"/>
       <c r="BJ54" s="8"/>
-      <c r="BK54" s="10"/>
+      <c r="BK54" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL54" s="17"/>
     </row>
     <row r="55" spans="1:64" x14ac:dyDescent="0.25">
@@ -10717,7 +10838,7 @@
         <v>73</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>75</v>
@@ -10732,7 +10853,7 @@
         <v>111</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="Q55" s="8" t="s">
         <v>79</v>
@@ -10749,22 +10870,14 @@
       <c r="U55" s="9">
         <v>0</v>
       </c>
-      <c r="V55" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="W55" s="8" t="s">
-        <v>126</v>
-      </c>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
-      <c r="AB55" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC55" s="8" t="s">
-        <v>126</v>
-      </c>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
       <c r="AD55" s="8"/>
       <c r="AE55" s="8"/>
       <c r="AF55" s="8"/>
@@ -10802,7 +10915,7 @@
       <c r="AV55" s="8"/>
       <c r="AW55" s="8"/>
       <c r="AX55" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AY55" s="9">
         <v>0</v>
@@ -10824,7 +10937,9 @@
       </c>
       <c r="BI55" s="8"/>
       <c r="BJ55" s="8"/>
-      <c r="BK55" s="10"/>
+      <c r="BK55" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL55" s="17"/>
     </row>
     <row r="56" spans="1:64" x14ac:dyDescent="0.25">
@@ -10859,7 +10974,7 @@
         <v>73</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>75</v>
@@ -10874,13 +10989,13 @@
         <v>77</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q56" s="8" t="s">
         <v>79</v>
       </c>
       <c r="R56" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S56" s="9">
         <v>210</v>
@@ -11011,7 +11126,7 @@
         <v>73</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>75</v>
@@ -11111,7 +11226,9 @@
       <c r="AU57" s="10"/>
       <c r="AV57" s="8"/>
       <c r="AW57" s="8"/>
-      <c r="AX57" s="7"/>
+      <c r="AX57" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY57" s="9">
         <v>0</v>
       </c>
@@ -11134,7 +11251,9 @@
       <c r="BJ57" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="BK57" s="10"/>
+      <c r="BK57" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL57" s="17" t="s">
         <v>87</v>
       </c>
@@ -11177,7 +11296,7 @@
         <v>74</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N58" s="7" t="s">
         <v>76</v>
@@ -11325,7 +11444,7 @@
         <v>73</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>75</v>
@@ -11425,7 +11544,9 @@
       <c r="AU59" s="10"/>
       <c r="AV59" s="8"/>
       <c r="AW59" s="8"/>
-      <c r="AX59" s="7"/>
+      <c r="AX59" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY59" s="9">
         <v>1</v>
       </c>
@@ -11452,7 +11573,9 @@
       <c r="BJ59" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="BK59" s="10"/>
+      <c r="BK59" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL59" s="17" t="s">
         <v>87</v>
       </c>
@@ -11489,7 +11612,7 @@
         <v>316</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>317</v>
@@ -11565,7 +11688,9 @@
       <c r="AU60" s="10"/>
       <c r="AV60" s="8"/>
       <c r="AW60" s="8"/>
-      <c r="AX60" s="7"/>
+      <c r="AX60" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY60" s="9">
         <v>1</v>
       </c>
@@ -11588,7 +11713,9 @@
       </c>
       <c r="BI60" s="8"/>
       <c r="BJ60" s="8"/>
-      <c r="BK60" s="10"/>
+      <c r="BK60" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL60" s="17"/>
     </row>
     <row r="61" spans="1:64" x14ac:dyDescent="0.25">
@@ -11629,7 +11756,7 @@
         <v>74</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N61" s="7" t="s">
         <v>74</v>
@@ -11789,7 +11916,7 @@
         <v>73</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>75</v>
@@ -11883,7 +12010,9 @@
       <c r="AU62" s="10"/>
       <c r="AV62" s="8"/>
       <c r="AW62" s="8"/>
-      <c r="AX62" s="7"/>
+      <c r="AX62" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY62" s="9">
         <v>0</v>
       </c>
@@ -11910,7 +12039,9 @@
       <c r="BJ62" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="BK62" s="10"/>
+      <c r="BK62" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL62" s="17"/>
     </row>
     <row r="63" spans="1:64" x14ac:dyDescent="0.25">
@@ -11951,7 +12082,7 @@
         <v>74</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N63" s="7" t="s">
         <v>74</v>
@@ -12049,7 +12180,9 @@
       <c r="AU63" s="10"/>
       <c r="AV63" s="8"/>
       <c r="AW63" s="8"/>
-      <c r="AX63" s="7"/>
+      <c r="AX63" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY63" s="9">
         <v>0</v>
       </c>
@@ -12074,7 +12207,9 @@
       <c r="BJ63" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="BK63" s="10"/>
+      <c r="BK63" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL63" s="17"/>
     </row>
     <row r="64" spans="1:64" x14ac:dyDescent="0.25">
@@ -12115,7 +12250,7 @@
         <v>74</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N64" s="7" t="s">
         <v>74</v>
@@ -12199,7 +12334,9 @@
       <c r="AU64" s="10"/>
       <c r="AV64" s="8"/>
       <c r="AW64" s="8"/>
-      <c r="AX64" s="7"/>
+      <c r="AX64" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY64" s="9">
         <v>0</v>
       </c>
@@ -12220,7 +12357,9 @@
       <c r="BJ64" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="BK64" s="10"/>
+      <c r="BK64" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL64" s="17"/>
     </row>
     <row r="65" spans="1:64" x14ac:dyDescent="0.25">
@@ -12521,7 +12660,7 @@
         <v>73</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L67" s="7" t="s">
         <v>75</v>
@@ -12605,7 +12744,9 @@
       <c r="AU67" s="10"/>
       <c r="AV67" s="8"/>
       <c r="AW67" s="8"/>
-      <c r="AX67" s="7"/>
+      <c r="AX67" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY67" s="9">
         <v>0</v>
       </c>
@@ -12624,7 +12765,9 @@
       <c r="BH67" s="8"/>
       <c r="BI67" s="8"/>
       <c r="BJ67" s="8"/>
-      <c r="BK67" s="10"/>
+      <c r="BK67" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL67" s="17"/>
     </row>
     <row r="68" spans="1:64" x14ac:dyDescent="0.25">
@@ -12659,7 +12802,7 @@
         <v>109</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L68" s="7" t="s">
         <v>74</v>
@@ -12735,7 +12878,9 @@
       <c r="AU68" s="10"/>
       <c r="AV68" s="8"/>
       <c r="AW68" s="8"/>
-      <c r="AX68" s="7"/>
+      <c r="AX68" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY68" s="9">
         <v>0</v>
       </c>
@@ -12756,7 +12901,9 @@
       </c>
       <c r="BI68" s="8"/>
       <c r="BJ68" s="8"/>
-      <c r="BK68" s="10"/>
+      <c r="BK68" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL68" s="17"/>
     </row>
     <row r="69" spans="1:64" x14ac:dyDescent="0.25">
@@ -13171,7 +13318,7 @@
         <v>76</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N72" s="7" t="s">
         <v>76</v>
@@ -13212,7 +13359,7 @@
         <v>360</v>
       </c>
       <c r="AL72" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AM72" s="7" t="s">
         <v>66</v>
@@ -13228,7 +13375,7 @@
       <c r="AV72" s="8"/>
       <c r="AW72" s="8"/>
       <c r="AX72" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AY72" s="9">
         <v>0</v>
@@ -13281,7 +13428,7 @@
         <v>73</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>75</v>
@@ -13375,7 +13522,9 @@
       <c r="AU73" s="10"/>
       <c r="AV73" s="8"/>
       <c r="AW73" s="8"/>
-      <c r="AX73" s="7"/>
+      <c r="AX73" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY73" s="9">
         <v>0</v>
       </c>
@@ -13398,7 +13547,9 @@
       <c r="BJ73" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="BK73" s="10"/>
+      <c r="BK73" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL73" s="17"/>
     </row>
     <row r="74" spans="1:64" x14ac:dyDescent="0.25">
@@ -13468,20 +13619,20 @@
       <c r="V74" s="8"/>
       <c r="W74" s="8"/>
       <c r="X74" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y74" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z74" s="8"/>
       <c r="AA74" s="8"/>
       <c r="AB74" s="8"/>
       <c r="AC74" s="8"/>
       <c r="AD74" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE74" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF74" s="8"/>
       <c r="AG74" s="8"/>
@@ -13518,7 +13669,7 @@
       <c r="AV74" s="8"/>
       <c r="AW74" s="8"/>
       <c r="AX74" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AY74" s="9">
         <v>0</v>
@@ -13583,7 +13734,7 @@
         <v>74</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N75" s="7" t="s">
         <v>76</v>
@@ -13663,7 +13814,9 @@
       <c r="AU75" s="10"/>
       <c r="AV75" s="8"/>
       <c r="AW75" s="8"/>
-      <c r="AX75" s="7"/>
+      <c r="AX75" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY75" s="9">
         <v>0</v>
       </c>
@@ -13686,7 +13839,9 @@
         <v>602</v>
       </c>
       <c r="BJ75" s="8"/>
-      <c r="BK75" s="10"/>
+      <c r="BK75" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL75" s="17"/>
     </row>
     <row r="76" spans="1:64" x14ac:dyDescent="0.25">
@@ -13721,7 +13876,7 @@
         <v>109</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>74</v>
@@ -13835,7 +13990,7 @@
         <v>73</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>75</v>
@@ -13929,7 +14084,9 @@
       <c r="AU77" s="10"/>
       <c r="AV77" s="8"/>
       <c r="AW77" s="8"/>
-      <c r="AX77" s="7"/>
+      <c r="AX77" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY77" s="9">
         <v>0</v>
       </c>
@@ -13952,7 +14109,9 @@
       <c r="BJ77" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="BK77" s="10"/>
+      <c r="BK77" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL77" s="17"/>
     </row>
     <row r="78" spans="1:64" x14ac:dyDescent="0.25">
@@ -13993,7 +14152,7 @@
         <v>74</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N78" s="7" t="s">
         <v>74</v>
@@ -14077,7 +14236,9 @@
       <c r="AU78" s="10"/>
       <c r="AV78" s="8"/>
       <c r="AW78" s="8"/>
-      <c r="AX78" s="7"/>
+      <c r="AX78" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY78" s="9">
         <v>0</v>
       </c>
@@ -14098,7 +14259,9 @@
       <c r="BJ78" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="BK78" s="10"/>
+      <c r="BK78" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL78" s="17"/>
     </row>
     <row r="79" spans="1:64" x14ac:dyDescent="0.25">
@@ -14133,7 +14296,7 @@
         <v>109</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L79" s="7" t="s">
         <v>74</v>
@@ -14217,7 +14380,9 @@
       <c r="AU79" s="10"/>
       <c r="AV79" s="8"/>
       <c r="AW79" s="8"/>
-      <c r="AX79" s="7"/>
+      <c r="AX79" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY79" s="9">
         <v>0</v>
       </c>
@@ -14238,7 +14403,9 @@
       </c>
       <c r="BI79" s="8"/>
       <c r="BJ79" s="8"/>
-      <c r="BK79" s="10"/>
+      <c r="BK79" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL79" s="17"/>
     </row>
     <row r="80" spans="1:64" x14ac:dyDescent="0.25">
@@ -14258,7 +14425,7 @@
         <v>627</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>628</v>
@@ -14273,7 +14440,7 @@
         <v>73</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>76</v>
@@ -14475,7 +14642,9 @@
       <c r="AU81" s="10"/>
       <c r="AV81" s="8"/>
       <c r="AW81" s="8"/>
-      <c r="AX81" s="7"/>
+      <c r="AX81" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY81" s="9">
         <v>0</v>
       </c>
@@ -14498,7 +14667,9 @@
         <v>636</v>
       </c>
       <c r="BJ81" s="8"/>
-      <c r="BK81" s="10"/>
+      <c r="BK81" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL81" s="17"/>
     </row>
     <row r="82" spans="1:64" x14ac:dyDescent="0.25">
@@ -14668,10 +14839,10 @@
         <v>203</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N83" s="7" t="s">
         <v>76</v>
@@ -14769,7 +14940,7 @@
         <v>73</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L84" s="7" t="s">
         <v>75</v>
@@ -14869,7 +15040,9 @@
       <c r="AU84" s="10"/>
       <c r="AV84" s="8"/>
       <c r="AW84" s="8"/>
-      <c r="AX84" s="7"/>
+      <c r="AX84" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY84" s="9">
         <v>0</v>
       </c>
@@ -14892,7 +15065,9 @@
       <c r="BJ84" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="BK84" s="10"/>
+      <c r="BK84" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL84" s="17" t="s">
         <v>87</v>
       </c>
@@ -14929,7 +15104,7 @@
         <v>109</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>74</v>
@@ -15013,7 +15188,9 @@
       <c r="AU85" s="10"/>
       <c r="AV85" s="8"/>
       <c r="AW85" s="8"/>
-      <c r="AX85" s="7"/>
+      <c r="AX85" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY85" s="9">
         <v>0</v>
       </c>
@@ -15036,7 +15213,9 @@
       </c>
       <c r="BI85" s="8"/>
       <c r="BJ85" s="8"/>
-      <c r="BK85" s="10"/>
+      <c r="BK85" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL85" s="17"/>
     </row>
     <row r="86" spans="1:64" x14ac:dyDescent="0.25">
@@ -15074,7 +15253,7 @@
         <v>203</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M86" s="7" t="s">
         <v>76</v>
@@ -15187,7 +15366,7 @@
         <v>73</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>317</v>
@@ -15220,20 +15399,20 @@
         <v>0</v>
       </c>
       <c r="V87" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W87" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
       <c r="AA87" s="8"/>
       <c r="AB87" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC87" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD87" s="8"/>
       <c r="AE87" s="8"/>
@@ -15329,7 +15508,7 @@
         <v>345</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>76</v>
@@ -15451,7 +15630,7 @@
         <v>76</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N89" s="7" t="s">
         <v>76</v>
@@ -15562,7 +15741,7 @@
         <v>680</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>681</v>
@@ -15699,7 +15878,7 @@
         <v>74</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N91" s="7" t="s">
         <v>76</v>
@@ -15837,7 +16016,7 @@
         <v>73</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L92" s="7" t="s">
         <v>75</v>
@@ -15870,20 +16049,20 @@
         <v>0</v>
       </c>
       <c r="V92" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W92" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X92" s="8"/>
       <c r="Y92" s="8"/>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8"/>
       <c r="AB92" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC92" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD92" s="8"/>
       <c r="AE92" s="8"/>
@@ -15977,7 +16156,7 @@
         <v>73</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>75</v>
@@ -15992,7 +16171,7 @@
         <v>111</v>
       </c>
       <c r="P93" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q93" s="8" t="s">
         <v>79</v>
@@ -16010,20 +16189,20 @@
         <v>0</v>
       </c>
       <c r="V93" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W93" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X93" s="8"/>
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
       <c r="AA93" s="8"/>
       <c r="AB93" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC93" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD93" s="8"/>
       <c r="AE93" s="8"/>
@@ -16123,7 +16302,7 @@
         <v>74</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N94" s="7" t="s">
         <v>76</v>
@@ -16211,7 +16390,9 @@
       <c r="AU94" s="10"/>
       <c r="AV94" s="8"/>
       <c r="AW94" s="8"/>
-      <c r="AX94" s="7"/>
+      <c r="AX94" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY94" s="9">
         <v>0</v>
       </c>
@@ -16234,7 +16415,9 @@
         <v>707</v>
       </c>
       <c r="BJ94" s="8"/>
-      <c r="BK94" s="10"/>
+      <c r="BK94" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL94" s="17"/>
     </row>
     <row r="95" spans="1:64" x14ac:dyDescent="0.25">
@@ -16436,20 +16619,20 @@
       <c r="V96" s="8"/>
       <c r="W96" s="8"/>
       <c r="X96" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y96" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z96" s="8"/>
       <c r="AA96" s="8"/>
       <c r="AB96" s="8"/>
       <c r="AC96" s="8"/>
       <c r="AD96" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE96" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF96" s="8"/>
       <c r="AG96" s="8"/>
@@ -16543,7 +16726,7 @@
         <v>73</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>75</v>
@@ -16576,27 +16759,27 @@
         <v>0</v>
       </c>
       <c r="V97" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W97" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X97" s="8"/>
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
       <c r="AA97" s="8"/>
       <c r="AB97" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC97" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD97" s="8"/>
       <c r="AE97" s="8"/>
       <c r="AF97" s="8"/>
       <c r="AG97" s="8"/>
       <c r="AH97" s="8" t="s">
-        <v>283</v>
+        <v>730</v>
       </c>
       <c r="AI97" s="8"/>
       <c r="AJ97" s="8"/>
@@ -16646,7 +16829,7 @@
       <c r="BF97" s="8"/>
       <c r="BG97" s="8"/>
       <c r="BH97" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BI97" s="8"/>
       <c r="BJ97" s="8"/>
@@ -16658,7 +16841,7 @@
         <v>353</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>104</v>
@@ -16667,16 +16850,16 @@
         <v>105</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>191</v>
@@ -16703,7 +16886,7 @@
         <v>79</v>
       </c>
       <c r="Q98" s="8" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="R98" s="8" t="s">
         <v>79</v>
@@ -16720,20 +16903,20 @@
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
       <c r="X98" s="8" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="Y98" s="8" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Z98" s="8"/>
       <c r="AA98" s="8"/>
       <c r="AB98" s="8"/>
       <c r="AC98" s="8"/>
       <c r="AD98" s="8" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AE98" s="8" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AF98" s="8"/>
       <c r="AG98" s="8"/>
@@ -16779,7 +16962,7 @@
       <c r="BG98" s="8"/>
       <c r="BH98" s="8"/>
       <c r="BI98" s="8" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BJ98" s="8"/>
       <c r="BK98" s="10"/>
@@ -16790,7 +16973,7 @@
         <v>301</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>104</v>
@@ -16799,16 +16982,16 @@
         <v>105</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="I99" s="7" t="s">
         <v>108</v>
@@ -16823,7 +17006,7 @@
         <v>74</v>
       </c>
       <c r="M99" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N99" s="7" t="s">
         <v>76</v>
@@ -16898,7 +17081,7 @@
       <c r="AV99" s="8"/>
       <c r="AW99" s="8"/>
       <c r="AX99" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AY99" s="9">
         <v>0</v>
@@ -16914,11 +17097,13 @@
       <c r="BF99" s="8"/>
       <c r="BG99" s="8"/>
       <c r="BH99" s="8" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BI99" s="8"/>
       <c r="BJ99" s="8"/>
-      <c r="BK99" s="10"/>
+      <c r="BK99" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL99" s="17"/>
     </row>
     <row r="100" spans="1:64" x14ac:dyDescent="0.25">
@@ -16926,7 +17111,7 @@
         <v>721</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>104</v>
@@ -16935,16 +17120,16 @@
         <v>105</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>108</v>
@@ -16953,7 +17138,7 @@
         <v>109</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L100" s="7" t="s">
         <v>74</v>
@@ -17046,7 +17231,7 @@
       <c r="BF100" s="8"/>
       <c r="BG100" s="8"/>
       <c r="BH100" s="8" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BI100" s="8"/>
       <c r="BJ100" s="8"/>
@@ -17058,7 +17243,7 @@
         <v>239</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>196</v>
@@ -17067,16 +17252,16 @@
         <v>197</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>222</v>
@@ -17091,7 +17276,7 @@
         <v>76</v>
       </c>
       <c r="M101" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N101" s="7" t="s">
         <v>76</v>
@@ -17174,7 +17359,7 @@
         <v>239</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>66</v>
@@ -17183,16 +17368,16 @@
         <v>67</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>72</v>
@@ -17201,7 +17386,7 @@
         <v>73</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L102" s="7" t="s">
         <v>75</v>
@@ -17262,11 +17447,11 @@
         <v>126</v>
       </c>
       <c r="AH102" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AI102" s="8"/>
       <c r="AJ102" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AK102" s="7" t="s">
         <v>83</v>
@@ -17301,7 +17486,9 @@
       <c r="AU102" s="10"/>
       <c r="AV102" s="8"/>
       <c r="AW102" s="8"/>
-      <c r="AX102" s="7"/>
+      <c r="AX102" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY102" s="9">
         <v>0</v>
       </c>
@@ -17318,13 +17505,15 @@
       <c r="BF102" s="8"/>
       <c r="BG102" s="8"/>
       <c r="BH102" s="8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BI102" s="8"/>
       <c r="BJ102" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="BK102" s="10"/>
+        <v>761</v>
+      </c>
+      <c r="BK102" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL102" s="17" t="s">
         <v>87</v>
       </c>
@@ -17334,7 +17523,7 @@
         <v>721</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>66</v>
@@ -17343,16 +17532,16 @@
         <v>67</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>72</v>
@@ -17361,7 +17550,7 @@
         <v>73</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L103" s="7" t="s">
         <v>75</v>
@@ -17394,32 +17583,32 @@
         <v>210</v>
       </c>
       <c r="V103" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W103" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X103" s="8"/>
       <c r="Y103" s="8"/>
       <c r="Z103" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA103" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB103" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AB103" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="AC103" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD103" s="8"/>
       <c r="AE103" s="8"/>
       <c r="AF103" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG103" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH103" s="8" t="s">
         <v>236</v>
@@ -17475,18 +17664,18 @@
       <c r="BC103" s="8"/>
       <c r="BD103" s="8"/>
       <c r="BE103" s="8" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="BF103" s="8"/>
       <c r="BG103" s="8" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="BH103" s="8" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="BI103" s="8"/>
       <c r="BJ103" s="8" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="BK103" s="10"/>
       <c r="BL103" s="17" t="s">
@@ -17498,7 +17687,7 @@
         <v>721</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>104</v>
@@ -17507,16 +17696,16 @@
         <v>105</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="I104" s="7" t="s">
         <v>108</v>
@@ -17525,7 +17714,7 @@
         <v>109</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L104" s="7" t="s">
         <v>74</v>
@@ -17540,7 +17729,7 @@
         <v>111</v>
       </c>
       <c r="P104" s="8" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="Q104" s="8" t="s">
         <v>79</v>
@@ -17618,7 +17807,7 @@
       <c r="BF104" s="8"/>
       <c r="BG104" s="8"/>
       <c r="BH104" s="8" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="BI104" s="8"/>
       <c r="BJ104" s="8"/>
@@ -17630,7 +17819,7 @@
         <v>185</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>66</v>
@@ -17639,16 +17828,16 @@
         <v>67</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>72</v>
@@ -17766,7 +17955,7 @@
         <v>185</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>66</v>
@@ -17775,16 +17964,16 @@
         <v>67</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>72</v>
@@ -17868,7 +18057,7 @@
         <v>239</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>66</v>
@@ -17877,16 +18066,16 @@
         <v>67</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>72</v>
@@ -17895,7 +18084,7 @@
         <v>73</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L107" s="7" t="s">
         <v>75</v>
@@ -17953,7 +18142,9 @@
       <c r="AU107" s="10"/>
       <c r="AV107" s="8"/>
       <c r="AW107" s="8"/>
-      <c r="AX107" s="7"/>
+      <c r="AX107" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY107" s="9"/>
       <c r="AZ107" s="9">
         <v>0</v>
@@ -17968,7 +18159,9 @@
       <c r="BH107" s="8"/>
       <c r="BI107" s="8"/>
       <c r="BJ107" s="8"/>
-      <c r="BK107" s="10"/>
+      <c r="BK107" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL107" s="17"/>
     </row>
     <row r="108" spans="1:64" x14ac:dyDescent="0.25">
@@ -17976,7 +18169,7 @@
         <v>239</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>104</v>
@@ -17985,16 +18178,16 @@
         <v>105</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="I108" s="7" t="s">
         <v>108</v>
@@ -18003,7 +18196,7 @@
         <v>109</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L108" s="7" t="s">
         <v>74</v>
@@ -18098,7 +18291,7 @@
       <c r="AV108" s="8"/>
       <c r="AW108" s="8"/>
       <c r="AX108" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AY108" s="9">
         <v>0</v>
@@ -18116,13 +18309,15 @@
       <c r="BF108" s="8"/>
       <c r="BG108" s="8"/>
       <c r="BH108" s="8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BI108" s="8"/>
       <c r="BJ108" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="BK108" s="10"/>
+        <v>791</v>
+      </c>
+      <c r="BK108" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL108" s="17"/>
     </row>
     <row r="109" spans="1:64" x14ac:dyDescent="0.25">
@@ -18130,7 +18325,7 @@
         <v>239</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>66</v>
@@ -18139,16 +18334,16 @@
         <v>67</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>399</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="I109" s="7" t="s">
         <v>72</v>
@@ -18157,7 +18352,7 @@
         <v>73</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L109" s="7" t="s">
         <v>75</v>
@@ -18172,13 +18367,13 @@
         <v>77</v>
       </c>
       <c r="P109" s="8" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Q109" s="8" t="s">
         <v>79</v>
       </c>
       <c r="R109" s="8" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="S109" s="9">
         <v>210</v>
@@ -18218,11 +18413,11 @@
         <v>126</v>
       </c>
       <c r="AH109" s="8" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AI109" s="8"/>
       <c r="AJ109" s="8" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AK109" s="7" t="s">
         <v>83</v>
@@ -18251,7 +18446,9 @@
       <c r="AU109" s="10"/>
       <c r="AV109" s="8"/>
       <c r="AW109" s="8"/>
-      <c r="AX109" s="7"/>
+      <c r="AX109" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY109" s="9">
         <v>0</v>
       </c>
@@ -18268,13 +18465,15 @@
       <c r="BF109" s="8"/>
       <c r="BG109" s="8"/>
       <c r="BH109" s="8" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="BI109" s="8"/>
       <c r="BJ109" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="BK109" s="10"/>
+        <v>798</v>
+      </c>
+      <c r="BK109" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL109" s="17"/>
     </row>
     <row r="110" spans="1:64" x14ac:dyDescent="0.25">
@@ -18282,7 +18481,7 @@
         <v>239</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>66</v>
@@ -18291,16 +18490,16 @@
         <v>67</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>72</v>
@@ -18309,7 +18508,7 @@
         <v>73</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L110" s="7" t="s">
         <v>75</v>
@@ -18324,13 +18523,13 @@
         <v>77</v>
       </c>
       <c r="P110" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q110" s="8" t="s">
         <v>79</v>
       </c>
       <c r="R110" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S110" s="9">
         <v>210</v>
@@ -18414,21 +18613,21 @@
         <v>0</v>
       </c>
       <c r="BB110" s="8" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="BC110" s="8"/>
       <c r="BD110" s="8" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="BE110" s="8"/>
       <c r="BF110" s="8"/>
       <c r="BG110" s="8"/>
       <c r="BH110" s="8" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="BI110" s="8"/>
       <c r="BJ110" s="8" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="BK110" s="10" t="s">
         <v>87</v>
@@ -18440,7 +18639,7 @@
         <v>118</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>66</v>
@@ -18449,16 +18648,16 @@
         <v>67</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="I111" s="7" t="s">
         <v>72</v>
@@ -18467,7 +18666,7 @@
         <v>73</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>75</v>
@@ -18482,13 +18681,13 @@
         <v>77</v>
       </c>
       <c r="P111" s="8" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Q111" s="8" t="s">
         <v>79</v>
       </c>
       <c r="R111" s="8" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="S111" s="9">
         <v>210</v>
@@ -18567,7 +18766,9 @@
       <c r="AU111" s="10"/>
       <c r="AV111" s="8"/>
       <c r="AW111" s="8"/>
-      <c r="AX111" s="7"/>
+      <c r="AX111" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY111" s="9">
         <v>0</v>
       </c>
@@ -18578,23 +18779,25 @@
         <v>0</v>
       </c>
       <c r="BB111" s="8" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="BC111" s="8"/>
       <c r="BD111" s="8" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="BE111" s="8"/>
       <c r="BF111" s="8"/>
       <c r="BG111" s="8"/>
       <c r="BH111" s="8" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="BI111" s="8"/>
       <c r="BJ111" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="BK111" s="10"/>
+        <v>813</v>
+      </c>
+      <c r="BK111" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL111" s="17" t="s">
         <v>87</v>
       </c>
@@ -18604,7 +18807,7 @@
         <v>118</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>104</v>
@@ -18613,16 +18816,16 @@
         <v>105</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>108</v>
@@ -18631,7 +18834,7 @@
         <v>109</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L112" s="7" t="s">
         <v>74</v>
@@ -18725,7 +18928,9 @@
       <c r="AU112" s="10"/>
       <c r="AV112" s="8"/>
       <c r="AW112" s="8"/>
-      <c r="AX112" s="7"/>
+      <c r="AX112" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY112" s="9">
         <v>0</v>
       </c>
@@ -18742,13 +18947,15 @@
       <c r="BF112" s="8"/>
       <c r="BG112" s="8"/>
       <c r="BH112" s="8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="BI112" s="8"/>
       <c r="BJ112" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="BK112" s="10"/>
+        <v>817</v>
+      </c>
+      <c r="BK112" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL112" s="17"/>
     </row>
     <row r="113" spans="1:64" x14ac:dyDescent="0.25">
@@ -18765,16 +18972,16 @@
         <v>105</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="I113" s="7" t="s">
         <v>191</v>
@@ -18818,20 +19025,20 @@
       <c r="V113" s="8"/>
       <c r="W113" s="8"/>
       <c r="X113" s="8" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Y113" s="8" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Z113" s="8"/>
       <c r="AA113" s="8"/>
       <c r="AB113" s="8"/>
       <c r="AC113" s="8"/>
       <c r="AD113" s="8" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AE113" s="8" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AF113" s="8"/>
       <c r="AG113" s="8"/>
@@ -18867,7 +19074,9 @@
       <c r="AU113" s="10"/>
       <c r="AV113" s="8"/>
       <c r="AW113" s="8"/>
-      <c r="AX113" s="7"/>
+      <c r="AX113" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AY113" s="9">
         <v>0</v>
       </c>
@@ -18882,15 +19091,17 @@
       <c r="BD113" s="8"/>
       <c r="BE113" s="8"/>
       <c r="BF113" s="8" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="BG113" s="8"/>
       <c r="BH113" s="8"/>
       <c r="BI113" s="8" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="BJ113" s="8"/>
-      <c r="BK113" s="10"/>
+      <c r="BK113" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BL113" s="17"/>
     </row>
     <row r="114" spans="1:64" x14ac:dyDescent="0.25">
@@ -18898,7 +19109,7 @@
         <v>217</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>66</v>
@@ -18907,16 +19118,16 @@
         <v>67</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="I114" s="7" t="s">
         <v>222</v>
@@ -18925,7 +19136,7 @@
         <v>223</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L114" s="7" t="s">
         <v>75</v>
@@ -19008,7 +19219,7 @@
         <v>130</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>66</v>
@@ -19017,25 +19228,25 @@
         <v>67</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="J115" s="12" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L115" s="12" t="s">
         <v>75</v>
